--- a/Datenvisualisierunng/Datenpur.xlsx
+++ b/Datenvisualisierunng/Datenpur.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="67">
   <si>
     <t xml:space="preserve">TIME</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t xml:space="preserve">U65Frau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mann-Frau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt-Jung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JungM-F</t>
   </si>
 </sst>
 </file>
@@ -8726,10 +8735,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H451"/>
+  <dimension ref="A1:K451"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H407" activeCellId="0" sqref="H407"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8759,6 +8768,15 @@
       <c r="H1" s="0" t="s">
         <v>63</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -8785,6 +8803,18 @@
       <c r="H2" s="6" t="n">
         <v>26.1</v>
       </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">D2-E2</f>
+        <v>-6.9</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">C2-F2</f>
+        <v>-6</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">G2-H2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -8811,6 +8841,18 @@
       <c r="H3" s="8" t="n">
         <v>26.2</v>
       </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">D3-E3</f>
+        <v>-6.7</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">C3-F3</f>
+        <v>-6.2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">G3-H3</f>
+        <v>2.2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -8837,6 +8879,18 @@
       <c r="H4" s="6" t="n">
         <v>26.1</v>
       </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">D4-E4</f>
+        <v>-6.9</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">C4-F4</f>
+        <v>-6</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">G4-H4</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -8863,6 +8917,18 @@
       <c r="H5" s="8" t="n">
         <v>26.1</v>
       </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">D5-E5</f>
+        <v>-6.9</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">C5-F5</f>
+        <v>-6.1</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">G5-H5</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -8889,6 +8955,18 @@
       <c r="H6" s="6" t="n">
         <v>26.5</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">D6-E6</f>
+        <v>-6.2</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">C6-F6</f>
+        <v>-7.3</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">G6-H6</f>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -8915,6 +8993,18 @@
       <c r="H7" s="8" t="n">
         <v>26.5</v>
       </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">D7-E7</f>
+        <v>-6.3</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">C7-F7</f>
+        <v>-7.1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">G7-H7</f>
+        <v>1.7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -8941,6 +9031,18 @@
       <c r="H8" s="6" t="n">
         <v>26.5</v>
       </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">D8-E8</f>
+        <v>-6.2</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">C8-F8</f>
+        <v>-7.3</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">G8-H8</f>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -8967,6 +9069,18 @@
       <c r="H9" s="8" t="n">
         <v>26.5</v>
       </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">D9-E9</f>
+        <v>-6.1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">C9-F9</f>
+        <v>-7.5</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">G9-H9</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -8993,6 +9107,18 @@
       <c r="H10" s="6" t="n">
         <v>25.6</v>
       </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">D10-E10</f>
+        <v>-0.400000000000002</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">C10-F10</f>
+        <v>-4.5</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">G10-H10</f>
+        <v>-4.6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -9019,6 +9145,18 @@
       <c r="H11" s="8" t="n">
         <v>27.7</v>
       </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">D11-E11</f>
+        <v>-27.5</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">C11-F11</f>
+        <v>29.4</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">G11-H11</f>
+        <v>-6.7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -9045,6 +9183,18 @@
       <c r="H12" s="6" t="n">
         <v>22.8</v>
       </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">D12-E12</f>
+        <v>-11.4</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">C12-F12</f>
+        <v>-2.4</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">G12-H12</f>
+        <v>-4.9</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -9071,6 +9221,18 @@
       <c r="H13" s="8" t="n">
         <v>31.4</v>
       </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">D13-E13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">C13-F13</f>
+        <v>-19.4</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">G13-H13</f>
+        <v>3.3</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -9097,6 +9259,18 @@
       <c r="H14" s="6" t="n">
         <v>31.3</v>
       </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">D14-E14</f>
+        <v>-6.8</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">C14-F14</f>
+        <v>-7.5</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">G14-H14</f>
+        <v>3.3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -9123,6 +9297,18 @@
       <c r="H15" s="8" t="n">
         <v>28.9</v>
       </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">D15-E15</f>
+        <v>-10.5</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">C15-F15</f>
+        <v>39.1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">G15-H15</f>
+        <v>11.2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -9149,6 +9335,18 @@
       <c r="H16" s="6" t="n">
         <v>36.8</v>
       </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">D16-E16</f>
+        <v>4.4</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">C16-F16</f>
+        <v>-13.6</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">G16-H16</f>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -9175,6 +9373,18 @@
       <c r="H17" s="8" t="n">
         <v>28.5</v>
       </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">D17-E17</f>
+        <v>-4.9</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">C17-F17</f>
+        <v>-7.6</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">G17-H17</f>
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -9201,6 +9411,18 @@
       <c r="H18" s="6" t="n">
         <v>23.4</v>
       </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">D18-E18</f>
+        <v>-5.2</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">C18-F18</f>
+        <v>-19.5</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">G18-H18</f>
+        <v>8.8</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -9227,6 +9449,18 @@
       <c r="H19" s="8" t="n">
         <v>19.8</v>
       </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">D19-E19</f>
+        <v>-4.3</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">C19-F19</f>
+        <v>-10</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">G19-H19</f>
+        <v>3.3</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -9253,6 +9487,18 @@
       <c r="H20" s="6" t="n">
         <v>38.1</v>
       </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">D20-E20</f>
+        <v>-7.8</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">C20-F20</f>
+        <v>4.4</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">G20-H20</f>
+        <v>-3.9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -9279,6 +9525,18 @@
       <c r="H21" s="8" t="n">
         <v>25.8</v>
       </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">D21-E21</f>
+        <v>-9.3</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">C21-F21</f>
+        <v>1.8</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">G21-H21</f>
+        <v>-5.5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -9305,6 +9563,18 @@
       <c r="H22" s="6" t="n">
         <v>21.5</v>
       </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">D22-E22</f>
+        <v>-5.1</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">C22-F22</f>
+        <v>12</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">G22-H22</f>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -9331,6 +9601,18 @@
       <c r="H23" s="8" t="n">
         <v>31.4</v>
       </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">D23-E23</f>
+        <v>-6.1</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">C23-F23</f>
+        <v>35.1</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">G23-H23</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -9357,6 +9639,18 @@
       <c r="H24" s="6" t="n">
         <v>29.7</v>
       </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">D24-E24</f>
+        <v>-11.2</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">C24-F24</f>
+        <v>8.3</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">G24-H24</f>
+        <v>11.9</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -9383,6 +9677,18 @@
       <c r="H25" s="8" t="n">
         <v>22.2</v>
       </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">D25-E25</f>
+        <v>0.0999999999999996</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">C25-F25</f>
+        <v>-12.7</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">G25-H25</f>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -9409,6 +9715,18 @@
       <c r="H26" s="6" t="n">
         <v>18.7</v>
       </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">D26-E26</f>
+        <v>-2.9</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">C26-F26</f>
+        <v>-18.2</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">G26-H26</f>
+        <v>9.4</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -9435,6 +9753,18 @@
       <c r="H27" s="8" t="n">
         <v>22.6</v>
       </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">D27-E27</f>
+        <v>-6.3</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">C27-F27</f>
+        <v>-5.2</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">G27-H27</f>
+        <v>6.4</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -9461,6 +9791,18 @@
       <c r="H28" s="6" t="n">
         <v>23.8</v>
       </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">D28-E28</f>
+        <v>-3.1</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">C28-F28</f>
+        <v>-16.9</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">G28-H28</f>
+        <v>0.699999999999999</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -9487,6 +9829,18 @@
       <c r="H29" s="8" t="n">
         <v>23.8</v>
       </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">D29-E29</f>
+        <v>-6.2</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">C29-F29</f>
+        <v>-3.5</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">G29-H29</f>
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -9513,6 +9867,18 @@
       <c r="H30" s="6" t="n">
         <v>22.6</v>
       </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">D30-E30</f>
+        <v>0.399999999999999</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">C30-F30</f>
+        <v>-7.3</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">G30-H30</f>
+        <v>8.7</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -9539,6 +9905,18 @@
       <c r="H31" s="8" t="n">
         <v>20.9</v>
       </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">D31-E31</f>
+        <v>-3.5</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">C31-F31</f>
+        <v>3.1</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">G31-H31</f>
+        <v>5.1</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -9565,6 +9943,18 @@
       <c r="H32" s="6" t="n">
         <v>21.2</v>
       </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">D32-E32</f>
+        <v>-14</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">C32-F32</f>
+        <v>6.4</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">G32-H32</f>
+        <v>8.9</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -9591,6 +9981,18 @@
       <c r="H33" s="8" t="n">
         <v>38.7</v>
       </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">D33-E33</f>
+        <v>-16</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">C33-F33</f>
+        <v>3.5</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">G33-H33</f>
+        <v>-7.9</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -9617,6 +10019,18 @@
       <c r="H34" s="6" t="n">
         <v>16.2</v>
       </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">D34-E34</f>
+        <v>-1.2</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">C34-F34</f>
+        <v>-11.8</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">G34-H34</f>
+        <v>9.8</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -9643,6 +10057,18 @@
       <c r="H35" s="8" t="n">
         <v>26.9</v>
       </c>
+      <c r="I35" s="0" t="n">
+        <f aca="false">D35-E35</f>
+        <v>-6.1</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">C35-F35</f>
+        <v>-2</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">G35-H35</f>
+        <v>7.1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -9669,6 +10095,18 @@
       <c r="H36" s="6" t="n">
         <v>30.3</v>
       </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">D36-E36</f>
+        <v>-14.3</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <f aca="false">C36-F36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">G36-H36</f>
+        <v>1.7</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -9695,6 +10133,18 @@
       <c r="H37" s="8" t="n">
         <v>17.5</v>
       </c>
+      <c r="I37" s="0" t="n">
+        <f aca="false">D37-E37</f>
+        <v>-3.1</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">C37-F37</f>
+        <v>-10.2</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">G37-H37</f>
+        <v>10.8</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -9721,6 +10171,18 @@
       <c r="H38" s="6" t="n">
         <v>35.4</v>
       </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">D38-E38</f>
+        <v>-20.7</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">C38-F38</f>
+        <v>-9.1</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">G38-H38</f>
+        <v>-8.6</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -9747,6 +10209,18 @@
       <c r="H39" s="8" t="n">
         <v>19.6</v>
       </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">D39-E39</f>
+        <v>-6.2</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">C39-F39</f>
+        <v>16.2</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">G39-H39</f>
+        <v>-3.8</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -9773,6 +10247,18 @@
       <c r="H40" s="6" t="n">
         <v>25.2</v>
       </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">D40-E40</f>
+        <v>-8.7</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">C40-F40</f>
+        <v>-4.1</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">G40-H40</f>
+        <v>0.400000000000002</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -9799,6 +10285,18 @@
       <c r="H41" s="8" t="n">
         <v>19.5</v>
       </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">D41-E41</f>
+        <v>-9.5</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">C41-F41</f>
+        <v>-3.1</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">G41-H41</f>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -9825,6 +10323,18 @@
       <c r="H42" s="6" t="n">
         <v>9.1</v>
       </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">D42-E42</f>
+        <v>-0.2</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">C42-F42</f>
+        <v>-8</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">G42-H42</f>
+        <v>11.5</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -9851,6 +10361,18 @@
       <c r="H43" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I43" s="0" t="e">
+        <f aca="false">D43-E43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J43" s="0" t="e">
+        <f aca="false">C43-F43</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K43" s="0" t="e">
+        <f aca="false">G43-H43</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -9877,6 +10399,18 @@
       <c r="H44" s="6" t="n">
         <v>26.7</v>
       </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">D44-E44</f>
+        <v>-2</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">C44-F44</f>
+        <v>-10.3</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">G44-H44</f>
+        <v>19.7</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -9903,6 +10437,18 @@
       <c r="H45" s="8" t="n">
         <v>10.6</v>
       </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">D45-E45</f>
+        <v>-8.8</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">C45-F45</f>
+        <v>11.9</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">G45-H45</f>
+        <v>-3.4</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -9929,6 +10475,18 @@
       <c r="H46" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I46" s="0" t="e">
+        <f aca="false">D46-E46</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J46" s="0" t="e">
+        <f aca="false">C46-F46</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" s="0" t="e">
+        <f aca="false">G46-H46</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -9955,6 +10513,18 @@
       <c r="H47" s="6" t="n">
         <v>27.4</v>
       </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">D47-E47</f>
+        <v>-7.3</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">C47-F47</f>
+        <v>-5.4</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">G47-H47</f>
+        <v>0.400000000000002</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -9981,6 +10551,18 @@
       <c r="H48" s="9" t="n">
         <v>28</v>
       </c>
+      <c r="I48" s="0" t="n">
+        <f aca="false">D48-E48</f>
+        <v>-7</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">C48-F48</f>
+        <v>-6.2</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">G48-H48</f>
+        <v>-0.199999999999999</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -10007,6 +10589,18 @@
       <c r="H49" s="6" t="n">
         <v>27.4</v>
       </c>
+      <c r="I49" s="0" t="n">
+        <f aca="false">D49-E49</f>
+        <v>-7.3</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">C49-F49</f>
+        <v>-5.4</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">G49-H49</f>
+        <v>0.400000000000002</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -10033,6 +10627,18 @@
       <c r="H50" s="8" t="n">
         <v>27.3</v>
       </c>
+      <c r="I50" s="0" t="n">
+        <f aca="false">D50-E50</f>
+        <v>-7.2</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">C50-F50</f>
+        <v>-5.6</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">G50-H50</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -10059,6 +10665,18 @@
       <c r="H51" s="6" t="n">
         <v>28.2</v>
       </c>
+      <c r="I51" s="0" t="n">
+        <f aca="false">D51-E51</f>
+        <v>-5.9</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">C51-F51</f>
+        <v>-7.4</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">G51-H51</f>
+        <v>-0.800000000000001</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -10085,6 +10703,18 @@
       <c r="H52" s="8" t="n">
         <v>28.2</v>
       </c>
+      <c r="I52" s="0" t="n">
+        <f aca="false">D52-E52</f>
+        <v>-6.1</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="false">C52-F52</f>
+        <v>-7.1</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">G52-H52</f>
+        <v>-0.800000000000001</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -10111,6 +10741,18 @@
       <c r="H53" s="6" t="n">
         <v>28.2</v>
       </c>
+      <c r="I53" s="0" t="n">
+        <f aca="false">D53-E53</f>
+        <v>-5.9</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">C53-F53</f>
+        <v>-7.4</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">G53-H53</f>
+        <v>-0.800000000000001</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -10137,6 +10779,18 @@
       <c r="H54" s="8" t="n">
         <v>28.2</v>
       </c>
+      <c r="I54" s="0" t="n">
+        <f aca="false">D54-E54</f>
+        <v>-5.7</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">C54-F54</f>
+        <v>-7.6</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">G54-H54</f>
+        <v>-0.899999999999999</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -10163,6 +10817,18 @@
       <c r="H55" s="6" t="n">
         <v>27.1</v>
       </c>
+      <c r="I55" s="0" t="n">
+        <f aca="false">D55-E55</f>
+        <v>-0.300000000000001</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">C55-F55</f>
+        <v>-7.8</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <f aca="false">G55-H55</f>
+        <v>-3.7</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -10189,6 +10855,18 @@
       <c r="H56" s="8" t="n">
         <v>27.5</v>
       </c>
+      <c r="I56" s="0" t="n">
+        <f aca="false">D56-E56</f>
+        <v>-21.2</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">C56-F56</f>
+        <v>14.7</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <f aca="false">G56-H56</f>
+        <v>3.7</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -10215,6 +10893,18 @@
       <c r="H57" s="6" t="n">
         <v>22.6</v>
       </c>
+      <c r="I57" s="0" t="n">
+        <f aca="false">D57-E57</f>
+        <v>-14.1</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">C57-F57</f>
+        <v>0.0999999999999979</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <f aca="false">G57-H57</f>
+        <v>-4.4</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -10241,6 +10931,18 @@
       <c r="H58" s="8" t="n">
         <v>32.6</v>
       </c>
+      <c r="I58" s="0" t="n">
+        <f aca="false">D58-E58</f>
+        <v>-0.4</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <f aca="false">C58-F58</f>
+        <v>-20.1</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">G58-H58</f>
+        <v>2.8</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -10267,6 +10969,18 @@
       <c r="H59" s="6" t="n">
         <v>34.1</v>
       </c>
+      <c r="I59" s="0" t="n">
+        <f aca="false">D59-E59</f>
+        <v>-7.7</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">C59-F59</f>
+        <v>-8</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">G59-H59</f>
+        <v>0.399999999999999</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -10293,6 +11007,18 @@
       <c r="H60" s="8" t="n">
         <v>30.9</v>
       </c>
+      <c r="I60" s="0" t="n">
+        <f aca="false">D60-E60</f>
+        <v>-2</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <f aca="false">C60-F60</f>
+        <v>43.2</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <f aca="false">G60-H60</f>
+        <v>9.2</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -10319,6 +11045,18 @@
       <c r="H61" s="6" t="n">
         <v>37.5</v>
       </c>
+      <c r="I61" s="0" t="n">
+        <f aca="false">D61-E61</f>
+        <v>3.6</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <f aca="false">C61-F61</f>
+        <v>-5.9</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">G61-H61</f>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -10345,6 +11083,18 @@
       <c r="H62" s="8" t="n">
         <v>24.1</v>
       </c>
+      <c r="I62" s="0" t="n">
+        <f aca="false">D62-E62</f>
+        <v>-3</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <f aca="false">C62-F62</f>
+        <v>-5.6</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <f aca="false">G62-H62</f>
+        <v>0.299999999999997</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -10371,6 +11121,18 @@
       <c r="H63" s="6" t="n">
         <v>24.7</v>
       </c>
+      <c r="I63" s="0" t="n">
+        <f aca="false">D63-E63</f>
+        <v>-3.2</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <f aca="false">C63-F63</f>
+        <v>-17.9</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <f aca="false">G63-H63</f>
+        <v>4.9</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -10397,6 +11159,18 @@
       <c r="H64" s="8" t="n">
         <v>18.5</v>
       </c>
+      <c r="I64" s="0" t="n">
+        <f aca="false">D64-E64</f>
+        <v>-5.8</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <f aca="false">C64-F64</f>
+        <v>-6.5</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <f aca="false">G64-H64</f>
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -10423,6 +11197,18 @@
       <c r="H65" s="6" t="n">
         <v>36.3</v>
       </c>
+      <c r="I65" s="0" t="n">
+        <f aca="false">D65-E65</f>
+        <v>-17.4</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <f aca="false">C65-F65</f>
+        <v>5.7</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <f aca="false">G65-H65</f>
+        <v>0.200000000000003</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -10449,6 +11235,18 @@
       <c r="H66" s="8" t="n">
         <v>30.4</v>
       </c>
+      <c r="I66" s="0" t="n">
+        <f aca="false">D66-E66</f>
+        <v>-6.5</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <f aca="false">C66-F66</f>
+        <v>-2</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <f aca="false">G66-H66</f>
+        <v>-7.7</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -10475,6 +11273,18 @@
       <c r="H67" s="6" t="n">
         <v>23.2</v>
       </c>
+      <c r="I67" s="0" t="n">
+        <f aca="false">D67-E67</f>
+        <v>-7</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <f aca="false">C67-F67</f>
+        <v>16.1</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <f aca="false">G67-H67</f>
+        <v>-8.4</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -10501,6 +11311,18 @@
       <c r="H68" s="8" t="n">
         <v>35.1</v>
       </c>
+      <c r="I68" s="0" t="n">
+        <f aca="false">D68-E68</f>
+        <v>-5.8</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <f aca="false">C68-F68</f>
+        <v>38.8</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <f aca="false">G68-H68</f>
+        <v>0.100000000000001</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -10527,6 +11349,18 @@
       <c r="H69" s="6" t="n">
         <v>33.8</v>
       </c>
+      <c r="I69" s="0" t="n">
+        <f aca="false">D69-E69</f>
+        <v>-13.1</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <f aca="false">C69-F69</f>
+        <v>13.9</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <f aca="false">G69-H69</f>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -10553,6 +11387,18 @@
       <c r="H70" s="8" t="n">
         <v>22.7</v>
       </c>
+      <c r="I70" s="0" t="n">
+        <f aca="false">D70-E70</f>
+        <v>-6.4</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <f aca="false">C70-F70</f>
+        <v>-10.6</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <f aca="false">G70-H70</f>
+        <v>0.300000000000001</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -10579,6 +11425,18 @@
       <c r="H71" s="6" t="n">
         <v>22.7</v>
       </c>
+      <c r="I71" s="0" t="n">
+        <f aca="false">D71-E71</f>
+        <v>-2.1</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <f aca="false">C71-F71</f>
+        <v>-15.5</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <f aca="false">G71-H71</f>
+        <v>3.2</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -10605,6 +11463,18 @@
       <c r="H72" s="8" t="n">
         <v>23.6</v>
       </c>
+      <c r="I72" s="0" t="n">
+        <f aca="false">D72-E72</f>
+        <v>-13.9</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <f aca="false">C72-F72</f>
+        <v>2</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <f aca="false">G72-H72</f>
+        <v>-0.800000000000001</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -10631,6 +11501,18 @@
       <c r="H73" s="6" t="n">
         <v>26.6</v>
       </c>
+      <c r="I73" s="0" t="n">
+        <f aca="false">D73-E73</f>
+        <v>-0.699999999999999</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <f aca="false">C73-F73</f>
+        <v>-18.7</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <f aca="false">G73-H73</f>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -10657,6 +11539,18 @@
       <c r="H74" s="8" t="n">
         <v>23.6</v>
       </c>
+      <c r="I74" s="0" t="n">
+        <f aca="false">D74-E74</f>
+        <v>-8.5</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <f aca="false">C74-F74</f>
+        <v>-4</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <f aca="false">G74-H74</f>
+        <v>0.199999999999999</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -10683,6 +11577,18 @@
       <c r="H75" s="6" t="n">
         <v>27.9</v>
       </c>
+      <c r="I75" s="0" t="n">
+        <f aca="false">D75-E75</f>
+        <v>-2.5</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <f aca="false">C75-F75</f>
+        <v>-8.7</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <f aca="false">G75-H75</f>
+        <v>5.4</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -10709,6 +11615,18 @@
       <c r="H76" s="9" t="n">
         <v>20</v>
       </c>
+      <c r="I76" s="0" t="n">
+        <f aca="false">D76-E76</f>
+        <v>-1.7</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <f aca="false">C76-F76</f>
+        <v>4.2</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <f aca="false">G76-H76</f>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -10735,6 +11653,18 @@
       <c r="H77" s="6" t="n">
         <v>22.7</v>
       </c>
+      <c r="I77" s="0" t="n">
+        <f aca="false">D77-E77</f>
+        <v>-19.5</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <f aca="false">C77-F77</f>
+        <v>5.2</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <f aca="false">G77-H77</f>
+        <v>7.9</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
@@ -10761,6 +11691,18 @@
       <c r="H78" s="8" t="n">
         <v>39.7</v>
       </c>
+      <c r="I78" s="0" t="n">
+        <f aca="false">D78-E78</f>
+        <v>-15.1</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <f aca="false">C78-F78</f>
+        <v>2.3</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <f aca="false">G78-H78</f>
+        <v>-8.1</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
@@ -10787,6 +11729,18 @@
       <c r="H79" s="6" t="n">
         <v>17.3</v>
       </c>
+      <c r="I79" s="0" t="n">
+        <f aca="false">D79-E79</f>
+        <v>-1.6</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <f aca="false">C79-F79</f>
+        <v>-13.7</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <f aca="false">G79-H79</f>
+        <v>10.6</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -10813,6 +11767,18 @@
       <c r="H80" s="8" t="n">
         <v>25.6</v>
       </c>
+      <c r="I80" s="0" t="n">
+        <f aca="false">D80-E80</f>
+        <v>-5.6</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <f aca="false">C80-F80</f>
+        <v>-4.5</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <f aca="false">G80-H80</f>
+        <v>8.5</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -10839,6 +11805,18 @@
       <c r="H81" s="6" t="n">
         <v>28.8</v>
       </c>
+      <c r="I81" s="0" t="n">
+        <f aca="false">D81-E81</f>
+        <v>-14.3</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <f aca="false">C81-F81</f>
+        <v>4.9</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <f aca="false">G81-H81</f>
+        <v>-0.400000000000002</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -10865,6 +11843,18 @@
       <c r="H82" s="8" t="n">
         <v>25.2</v>
       </c>
+      <c r="I82" s="0" t="n">
+        <f aca="false">D82-E82</f>
+        <v>-9</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <f aca="false">C82-F82</f>
+        <v>-7.3</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <f aca="false">G82-H82</f>
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -10891,6 +11881,18 @@
       <c r="H83" s="11" t="n">
         <v>34</v>
       </c>
+      <c r="I83" s="0" t="n">
+        <f aca="false">D83-E83</f>
+        <v>-18.8</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <f aca="false">C83-F83</f>
+        <v>-9.1</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <f aca="false">G83-H83</f>
+        <v>-7.1</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="n">
@@ -10917,6 +11919,18 @@
       <c r="H84" s="8" t="n">
         <v>18.2</v>
       </c>
+      <c r="I84" s="0" t="n">
+        <f aca="false">D84-E84</f>
+        <v>-7.9</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <f aca="false">C84-F84</f>
+        <v>17.2</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <f aca="false">G84-H84</f>
+        <v>-3.6</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
@@ -10943,6 +11957,18 @@
       <c r="H85" s="6" t="n">
         <v>21.4</v>
       </c>
+      <c r="I85" s="0" t="n">
+        <f aca="false">D85-E85</f>
+        <v>-10.2</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <f aca="false">C85-F85</f>
+        <v>0.300000000000001</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <f aca="false">G85-H85</f>
+        <v>6.6</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
@@ -10969,6 +11995,18 @@
       <c r="H86" s="8" t="n">
         <v>20.3</v>
       </c>
+      <c r="I86" s="0" t="n">
+        <f aca="false">D86-E86</f>
+        <v>-3.8</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <f aca="false">C86-F86</f>
+        <v>-4.8</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <f aca="false">G86-H86</f>
+        <v>-1.2</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
@@ -10995,6 +12033,18 @@
       <c r="H87" s="6" t="n">
         <v>11.3</v>
       </c>
+      <c r="I87" s="0" t="n">
+        <f aca="false">D87-E87</f>
+        <v>-1.6</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <f aca="false">C87-F87</f>
+        <v>-9.2</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <f aca="false">G87-H87</f>
+        <v>7.8</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="n">
@@ -11021,6 +12071,18 @@
       <c r="H88" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I88" s="0" t="e">
+        <f aca="false">D88-E88</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J88" s="0" t="e">
+        <f aca="false">C88-F88</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K88" s="0" t="e">
+        <f aca="false">G88-H88</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
@@ -11047,6 +12109,18 @@
       <c r="H89" s="6" t="n">
         <v>30.7</v>
       </c>
+      <c r="I89" s="0" t="n">
+        <f aca="false">D89-E89</f>
+        <v>-9.2</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <f aca="false">C89-F89</f>
+        <v>-11.6</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <f aca="false">G89-H89</f>
+        <v>18.2</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
@@ -11073,6 +12147,18 @@
       <c r="H90" s="8" t="n">
         <v>10.5</v>
       </c>
+      <c r="I90" s="0" t="n">
+        <f aca="false">D90-E90</f>
+        <v>-10.4</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <f aca="false">C90-F90</f>
+        <v>8.5</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <f aca="false">G90-H90</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
@@ -11099,6 +12185,18 @@
       <c r="H91" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I91" s="0" t="e">
+        <f aca="false">D91-E91</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J91" s="0" t="e">
+        <f aca="false">C91-F91</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K91" s="0" t="e">
+        <f aca="false">G91-H91</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="n">
@@ -11125,6 +12223,18 @@
       <c r="H92" s="6" t="n">
         <v>27.7</v>
       </c>
+      <c r="I92" s="0" t="n">
+        <f aca="false">D92-E92</f>
+        <v>-7</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <f aca="false">C92-F92</f>
+        <v>-4.8</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <f aca="false">G92-H92</f>
+        <v>0.100000000000001</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="n">
@@ -11151,6 +12261,18 @@
       <c r="H93" s="9" t="n">
         <v>28</v>
       </c>
+      <c r="I93" s="0" t="n">
+        <f aca="false">D93-E93</f>
+        <v>-6.6</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <f aca="false">C93-F93</f>
+        <v>-5.3</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <f aca="false">G93-H93</f>
+        <v>0.100000000000001</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="n">
@@ -11177,6 +12299,18 @@
       <c r="H94" s="6" t="n">
         <v>27.7</v>
       </c>
+      <c r="I94" s="0" t="n">
+        <f aca="false">D94-E94</f>
+        <v>-7</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <f aca="false">C94-F94</f>
+        <v>-4.8</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <f aca="false">G94-H94</f>
+        <v>0.100000000000001</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="n">
@@ -11203,6 +12337,18 @@
       <c r="H95" s="8" t="n">
         <v>27.7</v>
       </c>
+      <c r="I95" s="0" t="n">
+        <f aca="false">D95-E95</f>
+        <v>-6.9</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <f aca="false">C95-F95</f>
+        <v>-5</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <f aca="false">G95-H95</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="n">
@@ -11229,6 +12375,18 @@
       <c r="H96" s="6" t="n">
         <v>28.4</v>
       </c>
+      <c r="I96" s="0" t="n">
+        <f aca="false">D96-E96</f>
+        <v>-5.5</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <f aca="false">C96-F96</f>
+        <v>-7</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <f aca="false">G96-H96</f>
+        <v>-0.699999999999999</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="n">
@@ -11255,6 +12413,18 @@
       <c r="H97" s="8" t="n">
         <v>28.4</v>
       </c>
+      <c r="I97" s="0" t="n">
+        <f aca="false">D97-E97</f>
+        <v>-5.7</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <f aca="false">C97-F97</f>
+        <v>-6.8</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <f aca="false">G97-H97</f>
+        <v>-0.599999999999998</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="n">
@@ -11281,6 +12451,18 @@
       <c r="H98" s="6" t="n">
         <v>28.4</v>
       </c>
+      <c r="I98" s="0" t="n">
+        <f aca="false">D98-E98</f>
+        <v>-5.5</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <f aca="false">C98-F98</f>
+        <v>-7</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <f aca="false">G98-H98</f>
+        <v>-0.699999999999999</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="n">
@@ -11307,6 +12489,18 @@
       <c r="H99" s="8" t="n">
         <v>28.4</v>
       </c>
+      <c r="I99" s="0" t="n">
+        <f aca="false">D99-E99</f>
+        <v>-5.3</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <f aca="false">C99-F99</f>
+        <v>-7.4</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <f aca="false">G99-H99</f>
+        <v>-0.799999999999997</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="n">
@@ -11333,6 +12527,18 @@
       <c r="H100" s="6" t="n">
         <v>26.2</v>
       </c>
+      <c r="I100" s="0" t="n">
+        <f aca="false">D100-E100</f>
+        <v>0.399999999999999</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <f aca="false">C100-F100</f>
+        <v>-5.5</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <f aca="false">G100-H100</f>
+        <v>-3.2</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="n">
@@ -11359,6 +12565,18 @@
       <c r="H101" s="8" t="n">
         <v>23.3</v>
       </c>
+      <c r="I101" s="0" t="n">
+        <f aca="false">D101-E101</f>
+        <v>-22.6</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <f aca="false">C101-F101</f>
+        <v>30</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <f aca="false">G101-H101</f>
+        <v>5.1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="n">
@@ -11385,6 +12603,18 @@
       <c r="H102" s="11" t="n">
         <v>25</v>
       </c>
+      <c r="I102" s="0" t="n">
+        <f aca="false">D102-E102</f>
+        <v>-15.2</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <f aca="false">C102-F102</f>
+        <v>8.1</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <f aca="false">G102-H102</f>
+        <v>-9</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="n">
@@ -11411,6 +12641,18 @@
       <c r="H103" s="8" t="n">
         <v>31.9</v>
       </c>
+      <c r="I103" s="0" t="n">
+        <f aca="false">D103-E103</f>
+        <v>7.2</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <f aca="false">C103-F103</f>
+        <v>-17.3</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <f aca="false">G103-H103</f>
+        <v>2.7</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="n">
@@ -11437,6 +12679,18 @@
       <c r="H104" s="6" t="n">
         <v>32.4</v>
       </c>
+      <c r="I104" s="0" t="n">
+        <f aca="false">D104-E104</f>
+        <v>-6.4</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <f aca="false">C104-F104</f>
+        <v>-8</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <f aca="false">G104-H104</f>
+        <v>1.4</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="n">
@@ -11463,6 +12717,18 @@
       <c r="H105" s="8" t="n">
         <v>28.7</v>
       </c>
+      <c r="I105" s="0" t="n">
+        <f aca="false">D105-E105</f>
+        <v>-3.7</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <f aca="false">C105-F105</f>
+        <v>46.2</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <f aca="false">G105-H105</f>
+        <v>6.9</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="n">
@@ -11489,6 +12755,18 @@
       <c r="H106" s="6" t="n">
         <v>36.7</v>
       </c>
+      <c r="I106" s="0" t="n">
+        <f aca="false">D106-E106</f>
+        <v>-0.5</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <f aca="false">C106-F106</f>
+        <v>-10.1</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <f aca="false">G106-H106</f>
+        <v>5.8</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="n">
@@ -11515,6 +12793,18 @@
       <c r="H107" s="8" t="n">
         <v>23.8</v>
       </c>
+      <c r="I107" s="0" t="n">
+        <f aca="false">D107-E107</f>
+        <v>-5.4</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <f aca="false">C107-F107</f>
+        <v>-5.3</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <f aca="false">G107-H107</f>
+        <v>-1.2</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="n">
@@ -11541,6 +12831,18 @@
       <c r="H108" s="6" t="n">
         <v>27.4</v>
       </c>
+      <c r="I108" s="0" t="n">
+        <f aca="false">D108-E108</f>
+        <v>-4.2</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <f aca="false">C108-F108</f>
+        <v>-13.8</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <f aca="false">G108-H108</f>
+        <v>0.900000000000002</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="n">
@@ -11567,6 +12869,18 @@
       <c r="H109" s="9" t="n">
         <v>20</v>
       </c>
+      <c r="I109" s="0" t="n">
+        <f aca="false">D109-E109</f>
+        <v>-3.8</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <f aca="false">C109-F109</f>
+        <v>-8.1</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <f aca="false">G109-H109</f>
+        <v>0.600000000000001</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="n">
@@ -11593,6 +12907,18 @@
       <c r="H110" s="6" t="n">
         <v>37.4</v>
       </c>
+      <c r="I110" s="0" t="n">
+        <f aca="false">D110-E110</f>
+        <v>-14.5</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <f aca="false">C110-F110</f>
+        <v>8.2</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <f aca="false">G110-H110</f>
+        <v>4.1</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="n">
@@ -11619,6 +12945,18 @@
       <c r="H111" s="8" t="n">
         <v>30.4</v>
       </c>
+      <c r="I111" s="0" t="n">
+        <f aca="false">D111-E111</f>
+        <v>-5.9</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <f aca="false">C111-F111</f>
+        <v>-1.2</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <f aca="false">G111-H111</f>
+        <v>-7.9</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="n">
@@ -11645,6 +12983,18 @@
       <c r="H112" s="6" t="n">
         <v>18.7</v>
       </c>
+      <c r="I112" s="0" t="n">
+        <f aca="false">D112-E112</f>
+        <v>-7.6</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <f aca="false">C112-F112</f>
+        <v>17.4</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <f aca="false">G112-H112</f>
+        <v>-1.4</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
@@ -11671,6 +13021,18 @@
       <c r="H113" s="8" t="n">
         <v>32.8</v>
       </c>
+      <c r="I113" s="0" t="n">
+        <f aca="false">D113-E113</f>
+        <v>-5.09999999999999</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <f aca="false">C113-F113</f>
+        <v>37.9</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <f aca="false">G113-H113</f>
+        <v>4.7</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
@@ -11697,6 +13059,18 @@
       <c r="H114" s="6" t="n">
         <v>34.8</v>
       </c>
+      <c r="I114" s="0" t="n">
+        <f aca="false">D114-E114</f>
+        <v>-12.8</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <f aca="false">C114-F114</f>
+        <v>19.9</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <f aca="false">G114-H114</f>
+        <v>6.3</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="n">
@@ -11723,6 +13097,18 @@
       <c r="H115" s="8" t="n">
         <v>29.8</v>
       </c>
+      <c r="I115" s="0" t="n">
+        <f aca="false">D115-E115</f>
+        <v>-11.8</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <f aca="false">C115-F115</f>
+        <v>-12.9</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <f aca="false">G115-H115</f>
+        <v>-5.3</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="n">
@@ -11749,6 +13135,18 @@
       <c r="H116" s="6" t="n">
         <v>24.4</v>
       </c>
+      <c r="I116" s="0" t="n">
+        <f aca="false">D116-E116</f>
+        <v>-3.1</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <f aca="false">C116-F116</f>
+        <v>-13.8</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <f aca="false">G116-H116</f>
+        <v>-1.2</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="n">
@@ -11775,6 +13173,18 @@
       <c r="H117" s="8" t="n">
         <v>29.1</v>
       </c>
+      <c r="I117" s="0" t="n">
+        <f aca="false">D117-E117</f>
+        <v>-16.7</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <f aca="false">C117-F117</f>
+        <v>3.3</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <f aca="false">G117-H117</f>
+        <v>-7.6</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="n">
@@ -11801,6 +13211,18 @@
       <c r="H118" s="6" t="n">
         <v>30.5</v>
       </c>
+      <c r="I118" s="0" t="n">
+        <f aca="false">D118-E118</f>
+        <v>-1.4</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <f aca="false">C118-F118</f>
+        <v>-19.8</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <f aca="false">G118-H118</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="n">
@@ -11827,6 +13249,18 @@
       <c r="H119" s="8" t="n">
         <v>26.6</v>
       </c>
+      <c r="I119" s="0" t="n">
+        <f aca="false">D119-E119</f>
+        <v>-10.6</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <f aca="false">C119-F119</f>
+        <v>-3.2</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <f aca="false">G119-H119</f>
+        <v>-3.3</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="n">
@@ -11853,6 +13287,18 @@
       <c r="H120" s="6" t="n">
         <v>26.1</v>
       </c>
+      <c r="I120" s="0" t="n">
+        <f aca="false">D120-E120</f>
+        <v>-0.199999999999999</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <f aca="false">C120-F120</f>
+        <v>-7.4</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <f aca="false">G120-H120</f>
+        <v>12.4</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="n">
@@ -11879,6 +13325,18 @@
       <c r="H121" s="8" t="n">
         <v>24.3</v>
       </c>
+      <c r="I121" s="0" t="n">
+        <f aca="false">D121-E121</f>
+        <v>-2.3</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <f aca="false">C121-F121</f>
+        <v>0.600000000000001</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <f aca="false">G121-H121</f>
+        <v>1.4</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="n">
@@ -11905,6 +13363,18 @@
       <c r="H122" s="6" t="n">
         <v>22.1</v>
       </c>
+      <c r="I122" s="0" t="n">
+        <f aca="false">D122-E122</f>
+        <v>-22.8</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <f aca="false">C122-F122</f>
+        <v>7.4</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <f aca="false">G122-H122</f>
+        <v>4.3</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="n">
@@ -11931,6 +13401,18 @@
       <c r="H123" s="8" t="n">
         <v>42.1</v>
       </c>
+      <c r="I123" s="0" t="n">
+        <f aca="false">D123-E123</f>
+        <v>-10.4</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <f aca="false">C123-F123</f>
+        <v>-1.3</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <f aca="false">G123-H123</f>
+        <v>-7.1</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="n">
@@ -11957,6 +13439,18 @@
       <c r="H124" s="6" t="n">
         <v>18.8</v>
       </c>
+      <c r="I124" s="0" t="n">
+        <f aca="false">D124-E124</f>
+        <v>-2</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <f aca="false">C124-F124</f>
+        <v>-13.9</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <f aca="false">G124-H124</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="n">
@@ -11983,6 +13477,18 @@
       <c r="H125" s="8" t="n">
         <v>25.4</v>
       </c>
+      <c r="I125" s="0" t="n">
+        <f aca="false">D125-E125</f>
+        <v>-6.2</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <f aca="false">C125-F125</f>
+        <v>-3.1</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <f aca="false">G125-H125</f>
+        <v>7.1</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="n">
@@ -12009,6 +13515,18 @@
       <c r="H126" s="6" t="n">
         <v>25.9</v>
       </c>
+      <c r="I126" s="0" t="n">
+        <f aca="false">D126-E126</f>
+        <v>-11.8</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <f aca="false">C126-F126</f>
+        <v>2.2</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <f aca="false">G126-H126</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="n">
@@ -12035,6 +13553,18 @@
       <c r="H127" s="8" t="n">
         <v>22.2</v>
       </c>
+      <c r="I127" s="0" t="n">
+        <f aca="false">D127-E127</f>
+        <v>-6.5</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <f aca="false">C127-F127</f>
+        <v>-4.1</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <f aca="false">G127-H127</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="n">
@@ -12061,6 +13591,18 @@
       <c r="H128" s="6" t="n">
         <v>32.4</v>
       </c>
+      <c r="I128" s="0" t="n">
+        <f aca="false">D128-E128</f>
+        <v>-14.2</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <f aca="false">C128-F128</f>
+        <v>-10</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <f aca="false">G128-H128</f>
+        <v>-6.6</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="n">
@@ -12087,6 +13629,18 @@
       <c r="H129" s="8" t="n">
         <v>19.7</v>
       </c>
+      <c r="I129" s="0" t="n">
+        <f aca="false">D129-E129</f>
+        <v>-7.9</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <f aca="false">C129-F129</f>
+        <v>15.1</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <f aca="false">G129-H129</f>
+        <v>-4.1</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="n">
@@ -12113,6 +13667,18 @@
       <c r="H130" s="6" t="n">
         <v>24.7</v>
       </c>
+      <c r="I130" s="0" t="n">
+        <f aca="false">D130-E130</f>
+        <v>-9.9</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <f aca="false">C130-F130</f>
+        <v>-1.1</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <f aca="false">G130-H130</f>
+        <v>0.800000000000001</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="n">
@@ -12139,6 +13705,18 @@
       <c r="H131" s="8" t="n">
         <v>23.7</v>
       </c>
+      <c r="I131" s="0" t="n">
+        <f aca="false">D131-E131</f>
+        <v>-5.3</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <f aca="false">C131-F131</f>
+        <v>-6.7</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <f aca="false">G131-H131</f>
+        <v>-0.0999999999999979</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="n">
@@ -12165,6 +13743,18 @@
       <c r="H132" s="6" t="n">
         <v>11.7</v>
       </c>
+      <c r="I132" s="0" t="n">
+        <f aca="false">D132-E132</f>
+        <v>1.9</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <f aca="false">C132-F132</f>
+        <v>-5.3</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <f aca="false">G132-H132</f>
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="n">
@@ -12191,6 +13781,18 @@
       <c r="H133" s="8" t="n">
         <v>14.7</v>
       </c>
+      <c r="I133" s="0" t="n">
+        <f aca="false">D133-E133</f>
+        <v>-8.4</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <f aca="false">C133-F133</f>
+        <v>-0.0999999999999996</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <f aca="false">G133-H133</f>
+        <v>-1.4</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="n">
@@ -12217,6 +13819,18 @@
       <c r="H134" s="6" t="n">
         <v>37.7</v>
       </c>
+      <c r="I134" s="0" t="n">
+        <f aca="false">D134-E134</f>
+        <v>-14.1</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <f aca="false">C134-F134</f>
+        <v>-10.5</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <f aca="false">G134-H134</f>
+        <v>3.09999999999999</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="n">
@@ -12243,6 +13857,18 @@
       <c r="H135" s="8" t="n">
         <v>11.1</v>
       </c>
+      <c r="I135" s="0" t="n">
+        <f aca="false">D135-E135</f>
+        <v>-9</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <f aca="false">C135-F135</f>
+        <v>10.4</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <f aca="false">G135-H135</f>
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="n">
@@ -12269,6 +13895,18 @@
       <c r="H136" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I136" s="0" t="e">
+        <f aca="false">D136-E136</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J136" s="0" t="e">
+        <f aca="false">C136-F136</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K136" s="0" t="e">
+        <f aca="false">G136-H136</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="n">
@@ -12295,6 +13933,18 @@
       <c r="H137" s="6" t="n">
         <v>27.1</v>
       </c>
+      <c r="I137" s="0" t="n">
+        <f aca="false">D137-E137</f>
+        <v>-6.5</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <f aca="false">C137-F137</f>
+        <v>-2.6</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <f aca="false">G137-H137</f>
+        <v>-0.100000000000001</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="n">
@@ -12321,6 +13971,18 @@
       <c r="H138" s="8" t="n">
         <v>27.3</v>
       </c>
+      <c r="I138" s="0" t="n">
+        <f aca="false">D138-E138</f>
+        <v>-6.4</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <f aca="false">C138-F138</f>
+        <v>-3.3</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <f aca="false">G138-H138</f>
+        <v>-0.199999999999999</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="n">
@@ -12347,6 +14009,18 @@
       <c r="H139" s="6" t="n">
         <v>27.1</v>
       </c>
+      <c r="I139" s="0" t="n">
+        <f aca="false">D139-E139</f>
+        <v>-6.5</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <f aca="false">C139-F139</f>
+        <v>-2.6</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <f aca="false">G139-H139</f>
+        <v>-0.100000000000001</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="n">
@@ -12373,6 +14047,18 @@
       <c r="H140" s="8" t="n">
         <v>27.1</v>
       </c>
+      <c r="I140" s="0" t="n">
+        <f aca="false">D140-E140</f>
+        <v>-6.4</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <f aca="false">C140-F140</f>
+        <v>-2.7</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <f aca="false">G140-H140</f>
+        <v>-0.200000000000003</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="n">
@@ -12399,6 +14085,18 @@
       <c r="H141" s="11" t="n">
         <v>27</v>
       </c>
+      <c r="I141" s="0" t="n">
+        <f aca="false">D141-E141</f>
+        <v>-4.2</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <f aca="false">C141-F141</f>
+        <v>-5.2</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <f aca="false">G141-H141</f>
+        <v>-0.300000000000001</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="n">
@@ -12425,6 +14123,18 @@
       <c r="H142" s="8" t="n">
         <v>27.1</v>
       </c>
+      <c r="I142" s="0" t="n">
+        <f aca="false">D142-E142</f>
+        <v>-4.4</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <f aca="false">C142-F142</f>
+        <v>-5</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <f aca="false">G142-H142</f>
+        <v>-0.300000000000001</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="n">
@@ -12451,6 +14161,18 @@
       <c r="H143" s="11" t="n">
         <v>27</v>
       </c>
+      <c r="I143" s="0" t="n">
+        <f aca="false">D143-E143</f>
+        <v>-4.2</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <f aca="false">C143-F143</f>
+        <v>-5.2</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <f aca="false">G143-H143</f>
+        <v>-0.300000000000001</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="n">
@@ -12477,6 +14199,18 @@
       <c r="H144" s="9" t="n">
         <v>27</v>
       </c>
+      <c r="I144" s="0" t="n">
+        <f aca="false">D144-E144</f>
+        <v>-3.9</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <f aca="false">C144-F144</f>
+        <v>-5.6</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <f aca="false">G144-H144</f>
+        <v>-0.399999999999999</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="n">
@@ -12503,6 +14237,18 @@
       <c r="H145" s="6" t="n">
         <v>27.8</v>
       </c>
+      <c r="I145" s="0" t="n">
+        <f aca="false">D145-E145</f>
+        <v>-1.5</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <f aca="false">C145-F145</f>
+        <v>-6.3</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <f aca="false">G145-H145</f>
+        <v>-2.6</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="n">
@@ -12529,6 +14275,18 @@
       <c r="H146" s="8" t="n">
         <v>23.8</v>
       </c>
+      <c r="I146" s="0" t="n">
+        <f aca="false">D146-E146</f>
+        <v>-19.9</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <f aca="false">C146-F146</f>
+        <v>23.8</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <f aca="false">G146-H146</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="n">
@@ -12555,6 +14313,18 @@
       <c r="H147" s="6" t="n">
         <v>21.9</v>
       </c>
+      <c r="I147" s="0" t="n">
+        <f aca="false">D147-E147</f>
+        <v>-20.3</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <f aca="false">C147-F147</f>
+        <v>18.4</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <f aca="false">G147-H147</f>
+        <v>-6.4</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="n">
@@ -12581,6 +14351,18 @@
       <c r="H148" s="8" t="n">
         <v>38.1</v>
       </c>
+      <c r="I148" s="0" t="n">
+        <f aca="false">D148-E148</f>
+        <v>7.2</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <f aca="false">C148-F148</f>
+        <v>-17.5</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <f aca="false">G148-H148</f>
+        <v>-7.6</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="n">
@@ -12607,6 +14389,18 @@
       <c r="H149" s="6" t="n">
         <v>31.9</v>
       </c>
+      <c r="I149" s="0" t="n">
+        <f aca="false">D149-E149</f>
+        <v>-4.2</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <f aca="false">C149-F149</f>
+        <v>-5.7</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <f aca="false">G149-H149</f>
+        <v>-0.799999999999997</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="n">
@@ -12633,6 +14427,18 @@
       <c r="H150" s="8" t="n">
         <v>27.2</v>
       </c>
+      <c r="I150" s="0" t="n">
+        <f aca="false">D150-E150</f>
+        <v>-1.3</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <f aca="false">C150-F150</f>
+        <v>47.2</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <f aca="false">G150-H150</f>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="n">
@@ -12659,6 +14465,18 @@
       <c r="H151" s="6" t="n">
         <v>37.2</v>
       </c>
+      <c r="I151" s="0" t="n">
+        <f aca="false">D151-E151</f>
+        <v>-10.6</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <f aca="false">C151-F151</f>
+        <v>8.9</v>
+      </c>
+      <c r="K151" s="0" t="n">
+        <f aca="false">G151-H151</f>
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="n">
@@ -12685,6 +14503,18 @@
       <c r="H152" s="8" t="n">
         <v>23.5</v>
       </c>
+      <c r="I152" s="0" t="n">
+        <f aca="false">D152-E152</f>
+        <v>-4.7</v>
+      </c>
+      <c r="J152" s="0" t="n">
+        <f aca="false">C152-F152</f>
+        <v>-5.7</v>
+      </c>
+      <c r="K152" s="0" t="n">
+        <f aca="false">G152-H152</f>
+        <v>-3.4</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="n">
@@ -12711,6 +14541,18 @@
       <c r="H153" s="6" t="n">
         <v>23.7</v>
       </c>
+      <c r="I153" s="0" t="n">
+        <f aca="false">D153-E153</f>
+        <v>-3.9</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <f aca="false">C153-F153</f>
+        <v>-7.5</v>
+      </c>
+      <c r="K153" s="0" t="n">
+        <f aca="false">G153-H153</f>
+        <v>1.4</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="n">
@@ -12737,6 +14579,18 @@
       <c r="H154" s="8" t="n">
         <v>16.8</v>
       </c>
+      <c r="I154" s="0" t="n">
+        <f aca="false">D154-E154</f>
+        <v>-2.5</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <f aca="false">C154-F154</f>
+        <v>-7.9</v>
+      </c>
+      <c r="K154" s="0" t="n">
+        <f aca="false">G154-H154</f>
+        <v>5.8</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="n">
@@ -12763,6 +14617,18 @@
       <c r="H155" s="6" t="n">
         <v>39.8</v>
       </c>
+      <c r="I155" s="0" t="n">
+        <f aca="false">D155-E155</f>
+        <v>-17</v>
+      </c>
+      <c r="J155" s="0" t="n">
+        <f aca="false">C155-F155</f>
+        <v>9.7</v>
+      </c>
+      <c r="K155" s="0" t="n">
+        <f aca="false">G155-H155</f>
+        <v>-2.5</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="n">
@@ -12789,6 +14655,18 @@
       <c r="H156" s="8" t="n">
         <v>28.7</v>
       </c>
+      <c r="I156" s="0" t="n">
+        <f aca="false">D156-E156</f>
+        <v>-4.6</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <f aca="false">C156-F156</f>
+        <v>-1.1</v>
+      </c>
+      <c r="K156" s="0" t="n">
+        <f aca="false">G156-H156</f>
+        <v>-6.7</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="n">
@@ -12815,6 +14693,18 @@
       <c r="H157" s="6" t="n">
         <v>16.2</v>
       </c>
+      <c r="I157" s="0" t="n">
+        <f aca="false">D157-E157</f>
+        <v>-1.6</v>
+      </c>
+      <c r="J157" s="0" t="n">
+        <f aca="false">C157-F157</f>
+        <v>15</v>
+      </c>
+      <c r="K157" s="0" t="n">
+        <f aca="false">G157-H157</f>
+        <v>0.400000000000002</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="n">
@@ -12841,6 +14731,18 @@
       <c r="H158" s="9" t="n">
         <v>30</v>
       </c>
+      <c r="I158" s="0" t="n">
+        <f aca="false">D158-E158</f>
+        <v>-9.90000000000001</v>
+      </c>
+      <c r="J158" s="0" t="n">
+        <f aca="false">C158-F158</f>
+        <v>43</v>
+      </c>
+      <c r="K158" s="0" t="n">
+        <f aca="false">G158-H158</f>
+        <v>2.2</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="n">
@@ -12867,6 +14769,18 @@
       <c r="H159" s="6" t="n">
         <v>32.3</v>
       </c>
+      <c r="I159" s="0" t="n">
+        <f aca="false">D159-E159</f>
+        <v>-20.6</v>
+      </c>
+      <c r="J159" s="0" t="n">
+        <f aca="false">C159-F159</f>
+        <v>28.6</v>
+      </c>
+      <c r="K159" s="0" t="n">
+        <f aca="false">G159-H159</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="n">
@@ -12893,6 +14807,18 @@
       <c r="H160" s="8" t="n">
         <v>25.8</v>
       </c>
+      <c r="I160" s="0" t="n">
+        <f aca="false">D160-E160</f>
+        <v>-13.1</v>
+      </c>
+      <c r="J160" s="0" t="n">
+        <f aca="false">C160-F160</f>
+        <v>-6.3</v>
+      </c>
+      <c r="K160" s="0" t="n">
+        <f aca="false">G160-H160</f>
+        <v>-5.8</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="n">
@@ -12919,6 +14845,18 @@
       <c r="H161" s="6" t="n">
         <v>25.8</v>
       </c>
+      <c r="I161" s="0" t="n">
+        <f aca="false">D161-E161</f>
+        <v>-4.8</v>
+      </c>
+      <c r="J161" s="0" t="n">
+        <f aca="false">C161-F161</f>
+        <v>-11.1</v>
+      </c>
+      <c r="K161" s="0" t="n">
+        <f aca="false">G161-H161</f>
+        <v>-0.800000000000001</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="n">
@@ -12945,6 +14883,18 @@
       <c r="H162" s="9" t="n">
         <v>31</v>
       </c>
+      <c r="I162" s="0" t="n">
+        <f aca="false">D162-E162</f>
+        <v>-18.3</v>
+      </c>
+      <c r="J162" s="0" t="n">
+        <f aca="false">C162-F162</f>
+        <v>4.3</v>
+      </c>
+      <c r="K162" s="0" t="n">
+        <f aca="false">G162-H162</f>
+        <v>-10.3</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="n">
@@ -12971,6 +14921,18 @@
       <c r="H163" s="6" t="n">
         <v>31.8</v>
       </c>
+      <c r="I163" s="0" t="n">
+        <f aca="false">D163-E163</f>
+        <v>0.300000000000001</v>
+      </c>
+      <c r="J163" s="0" t="n">
+        <f aca="false">C163-F163</f>
+        <v>-20.1</v>
+      </c>
+      <c r="K163" s="0" t="n">
+        <f aca="false">G163-H163</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="n">
@@ -12997,6 +14959,18 @@
       <c r="H164" s="8" t="n">
         <v>23.4</v>
       </c>
+      <c r="I164" s="0" t="n">
+        <f aca="false">D164-E164</f>
+        <v>-12.8</v>
+      </c>
+      <c r="J164" s="0" t="n">
+        <f aca="false">C164-F164</f>
+        <v>2.4</v>
+      </c>
+      <c r="K164" s="0" t="n">
+        <f aca="false">G164-H164</f>
+        <v>-2.8</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="n">
@@ -13023,6 +14997,18 @@
       <c r="H165" s="6" t="n">
         <v>28.1</v>
       </c>
+      <c r="I165" s="0" t="n">
+        <f aca="false">D165-E165</f>
+        <v>-6.7</v>
+      </c>
+      <c r="J165" s="0" t="n">
+        <f aca="false">C165-F165</f>
+        <v>-2.2</v>
+      </c>
+      <c r="K165" s="0" t="n">
+        <f aca="false">G165-H165</f>
+        <v>9.8</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="n">
@@ -13049,6 +15035,18 @@
       <c r="H166" s="8" t="n">
         <v>22.3</v>
       </c>
+      <c r="I166" s="0" t="n">
+        <f aca="false">D166-E166</f>
+        <v>-11.2</v>
+      </c>
+      <c r="J166" s="0" t="n">
+        <f aca="false">C166-F166</f>
+        <v>3.8</v>
+      </c>
+      <c r="K166" s="0" t="n">
+        <f aca="false">G166-H166</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="n">
@@ -13075,6 +15073,18 @@
       <c r="H167" s="6" t="n">
         <v>24.8</v>
       </c>
+      <c r="I167" s="0" t="n">
+        <f aca="false">D167-E167</f>
+        <v>-24.6</v>
+      </c>
+      <c r="J167" s="0" t="n">
+        <f aca="false">C167-F167</f>
+        <v>11.1</v>
+      </c>
+      <c r="K167" s="0" t="n">
+        <f aca="false">G167-H167</f>
+        <v>1.4</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="n">
@@ -13101,6 +15111,18 @@
       <c r="H168" s="8" t="n">
         <v>39.9</v>
       </c>
+      <c r="I168" s="0" t="n">
+        <f aca="false">D168-E168</f>
+        <v>-5.6</v>
+      </c>
+      <c r="J168" s="0" t="n">
+        <f aca="false">C168-F168</f>
+        <v>2.3</v>
+      </c>
+      <c r="K168" s="0" t="n">
+        <f aca="false">G168-H168</f>
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="n">
@@ -13127,6 +15149,18 @@
       <c r="H169" s="6" t="n">
         <v>20.3</v>
       </c>
+      <c r="I169" s="0" t="n">
+        <f aca="false">D169-E169</f>
+        <v>-2.6</v>
+      </c>
+      <c r="J169" s="0" t="n">
+        <f aca="false">C169-F169</f>
+        <v>-10.6</v>
+      </c>
+      <c r="K169" s="0" t="n">
+        <f aca="false">G169-H169</f>
+        <v>5.3</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="n">
@@ -13153,6 +15187,18 @@
       <c r="H170" s="8" t="n">
         <v>25.4</v>
       </c>
+      <c r="I170" s="0" t="n">
+        <f aca="false">D170-E170</f>
+        <v>-6.3</v>
+      </c>
+      <c r="J170" s="0" t="n">
+        <f aca="false">C170-F170</f>
+        <v>-1.2</v>
+      </c>
+      <c r="K170" s="0" t="n">
+        <f aca="false">G170-H170</f>
+        <v>7.3</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="n">
@@ -13179,6 +15225,18 @@
       <c r="H171" s="6" t="n">
         <v>33.7</v>
       </c>
+      <c r="I171" s="0" t="n">
+        <f aca="false">D171-E171</f>
+        <v>-15.2</v>
+      </c>
+      <c r="J171" s="0" t="n">
+        <f aca="false">C171-F171</f>
+        <v>-2.3</v>
+      </c>
+      <c r="K171" s="0" t="n">
+        <f aca="false">G171-H171</f>
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="n">
@@ -13205,6 +15263,18 @@
       <c r="H172" s="8" t="n">
         <v>19.9</v>
       </c>
+      <c r="I172" s="0" t="n">
+        <f aca="false">D172-E172</f>
+        <v>1.7</v>
+      </c>
+      <c r="J172" s="0" t="n">
+        <f aca="false">C172-F172</f>
+        <v>-15.6</v>
+      </c>
+      <c r="K172" s="0" t="n">
+        <f aca="false">G172-H172</f>
+        <v>1.8</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="n">
@@ -13231,6 +15301,18 @@
       <c r="H173" s="6" t="n">
         <v>34.7</v>
       </c>
+      <c r="I173" s="0" t="n">
+        <f aca="false">D173-E173</f>
+        <v>-10.4</v>
+      </c>
+      <c r="J173" s="0" t="n">
+        <f aca="false">C173-F173</f>
+        <v>-15</v>
+      </c>
+      <c r="K173" s="0" t="n">
+        <f aca="false">G173-H173</f>
+        <v>-4.5</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="n">
@@ -13257,6 +15339,18 @@
       <c r="H174" s="8" t="n">
         <v>14.2</v>
       </c>
+      <c r="I174" s="0" t="n">
+        <f aca="false">D174-E174</f>
+        <v>-6.2</v>
+      </c>
+      <c r="J174" s="0" t="n">
+        <f aca="false">C174-F174</f>
+        <v>16.3</v>
+      </c>
+      <c r="K174" s="0" t="n">
+        <f aca="false">G174-H174</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="n">
@@ -13283,6 +15377,18 @@
       <c r="H175" s="11" t="n">
         <v>25</v>
       </c>
+      <c r="I175" s="0" t="n">
+        <f aca="false">D175-E175</f>
+        <v>-8.6</v>
+      </c>
+      <c r="J175" s="0" t="n">
+        <f aca="false">C175-F175</f>
+        <v>2.5</v>
+      </c>
+      <c r="K175" s="0" t="n">
+        <f aca="false">G175-H175</f>
+        <v>0.800000000000001</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="n">
@@ -13309,6 +15415,18 @@
       <c r="H176" s="9" t="n">
         <v>18</v>
       </c>
+      <c r="I176" s="0" t="n">
+        <f aca="false">D176-E176</f>
+        <v>0</v>
+      </c>
+      <c r="J176" s="0" t="n">
+        <f aca="false">C176-F176</f>
+        <v>-6</v>
+      </c>
+      <c r="K176" s="0" t="n">
+        <f aca="false">G176-H176</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="n">
@@ -13335,6 +15453,18 @@
       <c r="H177" s="6" t="n">
         <v>11.3</v>
       </c>
+      <c r="I177" s="0" t="n">
+        <f aca="false">D177-E177</f>
+        <v>-2.5</v>
+      </c>
+      <c r="J177" s="0" t="n">
+        <f aca="false">C177-F177</f>
+        <v>-7.5</v>
+      </c>
+      <c r="K177" s="0" t="n">
+        <f aca="false">G177-H177</f>
+        <v>4.1</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="n">
@@ -13361,6 +15491,18 @@
       <c r="H178" s="8" t="n">
         <v>20.1</v>
       </c>
+      <c r="I178" s="0" t="n">
+        <f aca="false">D178-E178</f>
+        <v>-4.5</v>
+      </c>
+      <c r="J178" s="0" t="n">
+        <f aca="false">C178-F178</f>
+        <v>-1.6</v>
+      </c>
+      <c r="K178" s="0" t="n">
+        <f aca="false">G178-H178</f>
+        <v>2.1</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="n">
@@ -13387,6 +15529,18 @@
       <c r="H179" s="6" t="n">
         <v>30.7</v>
       </c>
+      <c r="I179" s="0" t="n">
+        <f aca="false">D179-E179</f>
+        <v>-12.2</v>
+      </c>
+      <c r="J179" s="0" t="n">
+        <f aca="false">C179-F179</f>
+        <v>-4.6</v>
+      </c>
+      <c r="K179" s="0" t="n">
+        <f aca="false">G179-H179</f>
+        <v>11.3</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="n">
@@ -13413,6 +15567,18 @@
       <c r="H180" s="8" t="n">
         <v>10.1</v>
       </c>
+      <c r="I180" s="0" t="n">
+        <f aca="false">D180-E180</f>
+        <v>-5.3</v>
+      </c>
+      <c r="J180" s="0" t="n">
+        <f aca="false">C180-F180</f>
+        <v>10.5</v>
+      </c>
+      <c r="K180" s="0" t="n">
+        <f aca="false">G180-H180</f>
+        <v>-0.9</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="n">
@@ -13439,6 +15605,18 @@
       <c r="H181" s="6" t="n">
         <v>37.5</v>
       </c>
+      <c r="I181" s="0" t="n">
+        <f aca="false">D181-E181</f>
+        <v>-13.7</v>
+      </c>
+      <c r="J181" s="0" t="n">
+        <f aca="false">C181-F181</f>
+        <v>-4.2</v>
+      </c>
+      <c r="K181" s="0" t="n">
+        <f aca="false">G181-H181</f>
+        <v>8.9</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="n">
@@ -13465,6 +15643,18 @@
       <c r="H182" s="6" t="n">
         <v>26.7</v>
       </c>
+      <c r="I182" s="0" t="n">
+        <f aca="false">D182-E182</f>
+        <v>-7.5</v>
+      </c>
+      <c r="J182" s="0" t="n">
+        <f aca="false">C182-F182</f>
+        <v>-0.799999999999997</v>
+      </c>
+      <c r="K182" s="0" t="n">
+        <f aca="false">G182-H182</f>
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="n">
@@ -13491,6 +15681,18 @@
       <c r="H183" s="8" t="n">
         <v>26.9</v>
       </c>
+      <c r="I183" s="0" t="n">
+        <f aca="false">D183-E183</f>
+        <v>-7.4</v>
+      </c>
+      <c r="J183" s="0" t="n">
+        <f aca="false">C183-F183</f>
+        <v>-1.4</v>
+      </c>
+      <c r="K183" s="0" t="n">
+        <f aca="false">G183-H183</f>
+        <v>-0.599999999999998</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="n">
@@ -13517,6 +15719,18 @@
       <c r="H184" s="6" t="n">
         <v>26.7</v>
       </c>
+      <c r="I184" s="0" t="n">
+        <f aca="false">D184-E184</f>
+        <v>-7.5</v>
+      </c>
+      <c r="J184" s="0" t="n">
+        <f aca="false">C184-F184</f>
+        <v>-0.799999999999997</v>
+      </c>
+      <c r="K184" s="0" t="n">
+        <f aca="false">G184-H184</f>
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="n">
@@ -13543,6 +15757,18 @@
       <c r="H185" s="8" t="n">
         <v>26.7</v>
       </c>
+      <c r="I185" s="0" t="n">
+        <f aca="false">D185-E185</f>
+        <v>-7.4</v>
+      </c>
+      <c r="J185" s="0" t="n">
+        <f aca="false">C185-F185</f>
+        <v>-1</v>
+      </c>
+      <c r="K185" s="0" t="n">
+        <f aca="false">G185-H185</f>
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="n">
@@ -13569,6 +15795,18 @@
       <c r="H186" s="6" t="n">
         <v>26.8</v>
       </c>
+      <c r="I186" s="0" t="n">
+        <f aca="false">D186-E186</f>
+        <v>-5.2</v>
+      </c>
+      <c r="J186" s="0" t="n">
+        <f aca="false">C186-F186</f>
+        <v>-3.8</v>
+      </c>
+      <c r="K186" s="0" t="n">
+        <f aca="false">G186-H186</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="n">
@@ -13595,6 +15833,18 @@
       <c r="H187" s="8" t="n">
         <v>26.8</v>
       </c>
+      <c r="I187" s="0" t="n">
+        <f aca="false">D187-E187</f>
+        <v>-5.3</v>
+      </c>
+      <c r="J187" s="0" t="n">
+        <f aca="false">C187-F187</f>
+        <v>-3.6</v>
+      </c>
+      <c r="K187" s="0" t="n">
+        <f aca="false">G187-H187</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="n">
@@ -13621,6 +15871,18 @@
       <c r="H188" s="6" t="n">
         <v>26.8</v>
       </c>
+      <c r="I188" s="0" t="n">
+        <f aca="false">D188-E188</f>
+        <v>-5.2</v>
+      </c>
+      <c r="J188" s="0" t="n">
+        <f aca="false">C188-F188</f>
+        <v>-3.8</v>
+      </c>
+      <c r="K188" s="0" t="n">
+        <f aca="false">G188-H188</f>
+        <v>-1</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="n">
@@ -13647,6 +15909,18 @@
       <c r="H189" s="8" t="n">
         <v>26.8</v>
       </c>
+      <c r="I189" s="0" t="n">
+        <f aca="false">D189-E189</f>
+        <v>-4.8</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <f aca="false">C189-F189</f>
+        <v>-4.2</v>
+      </c>
+      <c r="K189" s="0" t="n">
+        <f aca="false">G189-H189</f>
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="n">
@@ -13673,6 +15947,18 @@
       <c r="H190" s="11" t="n">
         <v>23</v>
       </c>
+      <c r="I190" s="0" t="n">
+        <f aca="false">D190-E190</f>
+        <v>-3.5</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <f aca="false">C190-F190</f>
+        <v>-5.9</v>
+      </c>
+      <c r="K190" s="0" t="n">
+        <f aca="false">G190-H190</f>
+        <v>-0.800000000000001</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="n">
@@ -13699,6 +15985,18 @@
       <c r="H191" s="8" t="n">
         <v>23.2</v>
       </c>
+      <c r="I191" s="0" t="n">
+        <f aca="false">D191-E191</f>
+        <v>-14.9</v>
+      </c>
+      <c r="J191" s="0" t="n">
+        <f aca="false">C191-F191</f>
+        <v>31</v>
+      </c>
+      <c r="K191" s="0" t="n">
+        <f aca="false">G191-H191</f>
+        <v>5.2</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="n">
@@ -13725,6 +16023,18 @@
       <c r="H192" s="6" t="n">
         <v>21.1</v>
       </c>
+      <c r="I192" s="0" t="n">
+        <f aca="false">D192-E192</f>
+        <v>-20.9</v>
+      </c>
+      <c r="J192" s="0" t="n">
+        <f aca="false">C192-F192</f>
+        <v>24.1</v>
+      </c>
+      <c r="K192" s="0" t="n">
+        <f aca="false">G192-H192</f>
+        <v>-7.6</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="n">
@@ -13751,6 +16061,18 @@
       <c r="H193" s="8" t="n">
         <v>32.8</v>
       </c>
+      <c r="I193" s="0" t="n">
+        <f aca="false">D193-E193</f>
+        <v>2.5</v>
+      </c>
+      <c r="J193" s="0" t="n">
+        <f aca="false">C193-F193</f>
+        <v>-16.3</v>
+      </c>
+      <c r="K193" s="0" t="n">
+        <f aca="false">G193-H193</f>
+        <v>1.1</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="n">
@@ -13777,6 +16099,18 @@
       <c r="H194" s="6" t="n">
         <v>30.5</v>
       </c>
+      <c r="I194" s="0" t="n">
+        <f aca="false">D194-E194</f>
+        <v>-6.6</v>
+      </c>
+      <c r="J194" s="0" t="n">
+        <f aca="false">C194-F194</f>
+        <v>-2.9</v>
+      </c>
+      <c r="K194" s="0" t="n">
+        <f aca="false">G194-H194</f>
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="n">
@@ -13803,6 +16137,18 @@
       <c r="H195" s="8" t="n">
         <v>22.8</v>
       </c>
+      <c r="I195" s="0" t="n">
+        <f aca="false">D195-E195</f>
+        <v>-2.89999999999999</v>
+      </c>
+      <c r="J195" s="0" t="n">
+        <f aca="false">C195-F195</f>
+        <v>48</v>
+      </c>
+      <c r="K195" s="0" t="n">
+        <f aca="false">G195-H195</f>
+        <v>14.3</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="n">
@@ -13829,6 +16175,18 @@
       <c r="H196" s="6" t="n">
         <v>30.1</v>
       </c>
+      <c r="I196" s="0" t="n">
+        <f aca="false">D196-E196</f>
+        <v>-0.899999999999999</v>
+      </c>
+      <c r="J196" s="0" t="n">
+        <f aca="false">C196-F196</f>
+        <v>-10.4</v>
+      </c>
+      <c r="K196" s="0" t="n">
+        <f aca="false">G196-H196</f>
+        <v>8.6</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="n">
@@ -13855,6 +16213,18 @@
       <c r="H197" s="8" t="n">
         <v>21.5</v>
       </c>
+      <c r="I197" s="0" t="n">
+        <f aca="false">D197-E197</f>
+        <v>-4.3</v>
+      </c>
+      <c r="J197" s="0" t="n">
+        <f aca="false">C197-F197</f>
+        <v>-5.2</v>
+      </c>
+      <c r="K197" s="0" t="n">
+        <f aca="false">G197-H197</f>
+        <v>0.399999999999999</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="n">
@@ -13881,6 +16251,18 @@
       <c r="H198" s="6" t="n">
         <v>27.1</v>
       </c>
+      <c r="I198" s="0" t="n">
+        <f aca="false">D198-E198</f>
+        <v>0.200000000000001</v>
+      </c>
+      <c r="J198" s="0" t="n">
+        <f aca="false">C198-F198</f>
+        <v>-11.8</v>
+      </c>
+      <c r="K198" s="0" t="n">
+        <f aca="false">G198-H198</f>
+        <v>-2.2</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="n">
@@ -13907,6 +16289,18 @@
       <c r="H199" s="8" t="n">
         <v>20.1</v>
       </c>
+      <c r="I199" s="0" t="n">
+        <f aca="false">D199-E199</f>
+        <v>-0.200000000000001</v>
+      </c>
+      <c r="J199" s="0" t="n">
+        <f aca="false">C199-F199</f>
+        <v>-5.8</v>
+      </c>
+      <c r="K199" s="0" t="n">
+        <f aca="false">G199-H199</f>
+        <v>0.199999999999999</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="n">
@@ -13933,6 +16327,18 @@
       <c r="H200" s="6" t="n">
         <v>33.4</v>
       </c>
+      <c r="I200" s="0" t="n">
+        <f aca="false">D200-E200</f>
+        <v>-16.6</v>
+      </c>
+      <c r="J200" s="0" t="n">
+        <f aca="false">C200-F200</f>
+        <v>14.9</v>
+      </c>
+      <c r="K200" s="0" t="n">
+        <f aca="false">G200-H200</f>
+        <v>3.9</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="n">
@@ -13959,6 +16365,18 @@
       <c r="H201" s="8" t="n">
         <v>28.4</v>
       </c>
+      <c r="I201" s="0" t="n">
+        <f aca="false">D201-E201</f>
+        <v>-12.8</v>
+      </c>
+      <c r="J201" s="0" t="n">
+        <f aca="false">C201-F201</f>
+        <v>-1.1</v>
+      </c>
+      <c r="K201" s="0" t="n">
+        <f aca="false">G201-H201</f>
+        <v>-5.5</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="n">
@@ -13985,6 +16403,18 @@
       <c r="H202" s="11" t="n">
         <v>17</v>
       </c>
+      <c r="I202" s="0" t="n">
+        <f aca="false">D202-E202</f>
+        <v>-1.1</v>
+      </c>
+      <c r="J202" s="0" t="n">
+        <f aca="false">C202-F202</f>
+        <v>17.9</v>
+      </c>
+      <c r="K202" s="0" t="n">
+        <f aca="false">G202-H202</f>
+        <v>-2.1</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="n">
@@ -14011,6 +16441,18 @@
       <c r="H203" s="8" t="n">
         <v>29.7</v>
       </c>
+      <c r="I203" s="0" t="n">
+        <f aca="false">D203-E203</f>
+        <v>-1.8</v>
+      </c>
+      <c r="J203" s="0" t="n">
+        <f aca="false">C203-F203</f>
+        <v>43.2</v>
+      </c>
+      <c r="K203" s="0" t="n">
+        <f aca="false">G203-H203</f>
+        <v>4.1</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="n">
@@ -14037,6 +16479,18 @@
       <c r="H204" s="6" t="n">
         <v>29.5</v>
       </c>
+      <c r="I204" s="0" t="n">
+        <f aca="false">D204-E204</f>
+        <v>-27.1</v>
+      </c>
+      <c r="J204" s="0" t="n">
+        <f aca="false">C204-F204</f>
+        <v>23.2</v>
+      </c>
+      <c r="K204" s="0" t="n">
+        <f aca="false">G204-H204</f>
+        <v>11.6</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="n">
@@ -14063,6 +16517,18 @@
       <c r="H205" s="8" t="n">
         <v>20.2</v>
       </c>
+      <c r="I205" s="0" t="n">
+        <f aca="false">D205-E205</f>
+        <v>-12.6</v>
+      </c>
+      <c r="J205" s="0" t="n">
+        <f aca="false">C205-F205</f>
+        <v>-2.3</v>
+      </c>
+      <c r="K205" s="0" t="n">
+        <f aca="false">G205-H205</f>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="n">
@@ -14089,6 +16555,18 @@
       <c r="H206" s="6" t="n">
         <v>28.8</v>
       </c>
+      <c r="I206" s="0" t="n">
+        <f aca="false">D206-E206</f>
+        <v>-6</v>
+      </c>
+      <c r="J206" s="0" t="n">
+        <f aca="false">C206-F206</f>
+        <v>-9.8</v>
+      </c>
+      <c r="K206" s="0" t="n">
+        <f aca="false">G206-H206</f>
+        <v>-2.9</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="n">
@@ -14115,6 +16593,18 @@
       <c r="H207" s="9" t="n">
         <v>35</v>
       </c>
+      <c r="I207" s="0" t="n">
+        <f aca="false">D207-E207</f>
+        <v>-17.2</v>
+      </c>
+      <c r="J207" s="0" t="n">
+        <f aca="false">C207-F207</f>
+        <v>1.8</v>
+      </c>
+      <c r="K207" s="0" t="n">
+        <f aca="false">G207-H207</f>
+        <v>-11.3</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="n">
@@ -14141,6 +16631,18 @@
       <c r="H208" s="6" t="n">
         <v>30.7</v>
       </c>
+      <c r="I208" s="0" t="n">
+        <f aca="false">D208-E208</f>
+        <v>-2.7</v>
+      </c>
+      <c r="J208" s="0" t="n">
+        <f aca="false">C208-F208</f>
+        <v>-18.2</v>
+      </c>
+      <c r="K208" s="0" t="n">
+        <f aca="false">G208-H208</f>
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="n">
@@ -14167,6 +16669,18 @@
       <c r="H209" s="9" t="n">
         <v>23</v>
       </c>
+      <c r="I209" s="0" t="n">
+        <f aca="false">D209-E209</f>
+        <v>-11.6</v>
+      </c>
+      <c r="J209" s="0" t="n">
+        <f aca="false">C209-F209</f>
+        <v>3</v>
+      </c>
+      <c r="K209" s="0" t="n">
+        <f aca="false">G209-H209</f>
+        <v>0.100000000000001</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="n">
@@ -14193,6 +16707,18 @@
       <c r="H210" s="6" t="n">
         <v>26.3</v>
       </c>
+      <c r="I210" s="0" t="n">
+        <f aca="false">D210-E210</f>
+        <v>-9.9</v>
+      </c>
+      <c r="J210" s="0" t="n">
+        <f aca="false">C210-F210</f>
+        <v>3.6</v>
+      </c>
+      <c r="K210" s="0" t="n">
+        <f aca="false">G210-H210</f>
+        <v>9.6</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="n">
@@ -14219,6 +16745,18 @@
       <c r="H211" s="8" t="n">
         <v>22.4</v>
       </c>
+      <c r="I211" s="0" t="n">
+        <f aca="false">D211-E211</f>
+        <v>-6.2</v>
+      </c>
+      <c r="J211" s="0" t="n">
+        <f aca="false">C211-F211</f>
+        <v>0.699999999999999</v>
+      </c>
+      <c r="K211" s="0" t="n">
+        <f aca="false">G211-H211</f>
+        <v>6.6</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="n">
@@ -14245,6 +16783,18 @@
       <c r="H212" s="6" t="n">
         <v>28.8</v>
       </c>
+      <c r="I212" s="0" t="n">
+        <f aca="false">D212-E212</f>
+        <v>-24.3</v>
+      </c>
+      <c r="J212" s="0" t="n">
+        <f aca="false">C212-F212</f>
+        <v>14.8</v>
+      </c>
+      <c r="K212" s="0" t="n">
+        <f aca="false">G212-H212</f>
+        <v>-3.8</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="n">
@@ -14271,6 +16821,18 @@
       <c r="H213" s="8" t="n">
         <v>31.8</v>
       </c>
+      <c r="I213" s="0" t="n">
+        <f aca="false">D213-E213</f>
+        <v>-8.8</v>
+      </c>
+      <c r="J213" s="0" t="n">
+        <f aca="false">C213-F213</f>
+        <v>11.9</v>
+      </c>
+      <c r="K213" s="0" t="n">
+        <f aca="false">G213-H213</f>
+        <v>0.999999999999996</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="n">
@@ -14297,6 +16859,18 @@
       <c r="H214" s="6" t="n">
         <v>19.2</v>
       </c>
+      <c r="I214" s="0" t="n">
+        <f aca="false">D214-E214</f>
+        <v>-2.9</v>
+      </c>
+      <c r="J214" s="0" t="n">
+        <f aca="false">C214-F214</f>
+        <v>-2.3</v>
+      </c>
+      <c r="K214" s="0" t="n">
+        <f aca="false">G214-H214</f>
+        <v>6.4</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="n">
@@ -14323,6 +16897,18 @@
       <c r="H215" s="8" t="n">
         <v>23.9</v>
       </c>
+      <c r="I215" s="0" t="n">
+        <f aca="false">D215-E215</f>
+        <v>-1.1</v>
+      </c>
+      <c r="J215" s="0" t="n">
+        <f aca="false">C215-F215</f>
+        <v>3.4</v>
+      </c>
+      <c r="K215" s="0" t="n">
+        <f aca="false">G215-H215</f>
+        <v>4.4</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="n">
@@ -14349,6 +16935,18 @@
       <c r="H216" s="6" t="n">
         <v>27.9</v>
       </c>
+      <c r="I216" s="0" t="n">
+        <f aca="false">D216-E216</f>
+        <v>-11.8</v>
+      </c>
+      <c r="J216" s="0" t="n">
+        <f aca="false">C216-F216</f>
+        <v>-0.699999999999999</v>
+      </c>
+      <c r="K216" s="0" t="n">
+        <f aca="false">G216-H216</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="n">
@@ -14375,6 +16973,18 @@
       <c r="H217" s="8" t="n">
         <v>14.7</v>
       </c>
+      <c r="I217" s="0" t="n">
+        <f aca="false">D217-E217</f>
+        <v>2.6</v>
+      </c>
+      <c r="J217" s="0" t="n">
+        <f aca="false">C217-F217</f>
+        <v>-12.7</v>
+      </c>
+      <c r="K217" s="0" t="n">
+        <f aca="false">G217-H217</f>
+        <v>6.8</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="n">
@@ -14401,6 +17011,18 @@
       <c r="H218" s="6" t="n">
         <v>31.7</v>
       </c>
+      <c r="I218" s="0" t="n">
+        <f aca="false">D218-E218</f>
+        <v>-15</v>
+      </c>
+      <c r="J218" s="0" t="n">
+        <f aca="false">C218-F218</f>
+        <v>-11.6</v>
+      </c>
+      <c r="K218" s="0" t="n">
+        <f aca="false">G218-H218</f>
+        <v>-3.6</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="n">
@@ -14427,6 +17049,18 @@
       <c r="H219" s="8" t="n">
         <v>14.2</v>
       </c>
+      <c r="I219" s="0" t="n">
+        <f aca="false">D219-E219</f>
+        <v>-8.7</v>
+      </c>
+      <c r="J219" s="0" t="n">
+        <f aca="false">C219-F219</f>
+        <v>15.8</v>
+      </c>
+      <c r="K219" s="0" t="n">
+        <f aca="false">G219-H219</f>
+        <v>6.4</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="n">
@@ -14453,6 +17087,18 @@
       <c r="H220" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I220" s="0" t="e">
+        <f aca="false">D220-E220</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J220" s="0" t="e">
+        <f aca="false">C220-F220</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K220" s="0" t="e">
+        <f aca="false">G220-H220</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="n">
@@ -14479,6 +17125,18 @@
       <c r="H221" s="9" t="n">
         <v>21</v>
       </c>
+      <c r="I221" s="0" t="n">
+        <f aca="false">D221-E221</f>
+        <v>1.3</v>
+      </c>
+      <c r="J221" s="0" t="n">
+        <f aca="false">C221-F221</f>
+        <v>-5.3</v>
+      </c>
+      <c r="K221" s="0" t="n">
+        <f aca="false">G221-H221</f>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="n">
@@ -14505,6 +17163,18 @@
       <c r="H222" s="6" t="n">
         <v>15.9</v>
       </c>
+      <c r="I222" s="0" t="n">
+        <f aca="false">D222-E222</f>
+        <v>-0.3</v>
+      </c>
+      <c r="J222" s="0" t="n">
+        <f aca="false">C222-F222</f>
+        <v>-12.5</v>
+      </c>
+      <c r="K222" s="0" t="n">
+        <f aca="false">G222-H222</f>
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="n">
@@ -14531,6 +17201,18 @@
       <c r="H223" s="8" t="n">
         <v>17.3</v>
       </c>
+      <c r="I223" s="0" t="n">
+        <f aca="false">D223-E223</f>
+        <v>-7.3</v>
+      </c>
+      <c r="J223" s="0" t="n">
+        <f aca="false">C223-F223</f>
+        <v>1.4</v>
+      </c>
+      <c r="K223" s="0" t="n">
+        <f aca="false">G223-H223</f>
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="n">
@@ -14557,6 +17239,18 @@
       <c r="H224" s="6" t="n">
         <v>26.5</v>
       </c>
+      <c r="I224" s="0" t="n">
+        <f aca="false">D224-E224</f>
+        <v>-11.6</v>
+      </c>
+      <c r="J224" s="0" t="n">
+        <f aca="false">C224-F224</f>
+        <v>-3.6</v>
+      </c>
+      <c r="K224" s="0" t="n">
+        <f aca="false">G224-H224</f>
+        <v>8.7</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="n">
@@ -14583,6 +17277,18 @@
       <c r="H225" s="8" t="n">
         <v>10.5</v>
       </c>
+      <c r="I225" s="0" t="n">
+        <f aca="false">D225-E225</f>
+        <v>-4.1</v>
+      </c>
+      <c r="J225" s="0" t="n">
+        <f aca="false">C225-F225</f>
+        <v>9.7</v>
+      </c>
+      <c r="K225" s="0" t="n">
+        <f aca="false">G225-H225</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="n">
@@ -14609,6 +17315,18 @@
       <c r="H226" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I226" s="0" t="e">
+        <f aca="false">D226-E226</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J226" s="0" t="e">
+        <f aca="false">C226-F226</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K226" s="0" t="e">
+        <f aca="false">G226-H226</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="n">
@@ -14635,6 +17353,18 @@
       <c r="H227" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I227" s="0" t="e">
+        <f aca="false">D227-E227</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J227" s="0" t="e">
+        <f aca="false">C227-F227</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K227" s="0" t="e">
+        <f aca="false">G227-H227</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="n">
@@ -14661,6 +17391,18 @@
       <c r="H228" s="8" t="n">
         <v>27.3</v>
       </c>
+      <c r="I228" s="0" t="n">
+        <f aca="false">D228-E228</f>
+        <v>-7.7</v>
+      </c>
+      <c r="J228" s="0" t="n">
+        <f aca="false">C228-F228</f>
+        <v>1.1</v>
+      </c>
+      <c r="K228" s="0" t="n">
+        <f aca="false">G228-H228</f>
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="n">
@@ -14687,6 +17429,18 @@
       <c r="H229" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I229" s="0" t="e">
+        <f aca="false">D229-E229</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J229" s="0" t="e">
+        <f aca="false">C229-F229</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K229" s="0" t="e">
+        <f aca="false">G229-H229</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="n">
@@ -14713,6 +17467,18 @@
       <c r="H230" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I230" s="0" t="e">
+        <f aca="false">D230-E230</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J230" s="0" t="e">
+        <f aca="false">C230-F230</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K230" s="0" t="e">
+        <f aca="false">G230-H230</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="n">
@@ -14739,6 +17505,18 @@
       <c r="H231" s="6" t="n">
         <v>27.7</v>
       </c>
+      <c r="I231" s="0" t="n">
+        <f aca="false">D231-E231</f>
+        <v>-5.7</v>
+      </c>
+      <c r="J231" s="0" t="n">
+        <f aca="false">C231-F231</f>
+        <v>-1.5</v>
+      </c>
+      <c r="K231" s="0" t="n">
+        <f aca="false">G231-H231</f>
+        <v>-1.8</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="n">
@@ -14765,6 +17543,18 @@
       <c r="H232" s="8" t="n">
         <v>27.7</v>
       </c>
+      <c r="I232" s="0" t="n">
+        <f aca="false">D232-E232</f>
+        <v>-5.9</v>
+      </c>
+      <c r="J232" s="0" t="n">
+        <f aca="false">C232-F232</f>
+        <v>-1.3</v>
+      </c>
+      <c r="K232" s="0" t="n">
+        <f aca="false">G232-H232</f>
+        <v>-1.8</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="n">
@@ -14791,6 +17581,18 @@
       <c r="H233" s="6" t="n">
         <v>27.7</v>
       </c>
+      <c r="I233" s="0" t="n">
+        <f aca="false">D233-E233</f>
+        <v>-5.7</v>
+      </c>
+      <c r="J233" s="0" t="n">
+        <f aca="false">C233-F233</f>
+        <v>-1.5</v>
+      </c>
+      <c r="K233" s="0" t="n">
+        <f aca="false">G233-H233</f>
+        <v>-1.8</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="n">
@@ -14817,6 +17619,18 @@
       <c r="H234" s="8" t="n">
         <v>27.7</v>
       </c>
+      <c r="I234" s="0" t="n">
+        <f aca="false">D234-E234</f>
+        <v>-5.4</v>
+      </c>
+      <c r="J234" s="0" t="n">
+        <f aca="false">C234-F234</f>
+        <v>-1.9</v>
+      </c>
+      <c r="K234" s="0" t="n">
+        <f aca="false">G234-H234</f>
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="n">
@@ -14843,6 +17657,18 @@
       <c r="H235" s="6" t="n">
         <v>26.2</v>
       </c>
+      <c r="I235" s="0" t="n">
+        <f aca="false">D235-E235</f>
+        <v>-2.6</v>
+      </c>
+      <c r="J235" s="0" t="n">
+        <f aca="false">C235-F235</f>
+        <v>-2.3</v>
+      </c>
+      <c r="K235" s="0" t="n">
+        <f aca="false">G235-H235</f>
+        <v>-3.6</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="n">
@@ -14869,6 +17695,18 @@
       <c r="H236" s="8" t="n">
         <v>20.9</v>
       </c>
+      <c r="I236" s="0" t="n">
+        <f aca="false">D236-E236</f>
+        <v>-14.2</v>
+      </c>
+      <c r="J236" s="0" t="n">
+        <f aca="false">C236-F236</f>
+        <v>37.3</v>
+      </c>
+      <c r="K236" s="0" t="n">
+        <f aca="false">G236-H236</f>
+        <v>6.8</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="n">
@@ -14895,6 +17733,18 @@
       <c r="H237" s="6" t="n">
         <v>19.5</v>
       </c>
+      <c r="I237" s="0" t="n">
+        <f aca="false">D237-E237</f>
+        <v>-17.4</v>
+      </c>
+      <c r="J237" s="0" t="n">
+        <f aca="false">C237-F237</f>
+        <v>21.5</v>
+      </c>
+      <c r="K237" s="0" t="n">
+        <f aca="false">G237-H237</f>
+        <v>-6.7</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="n">
@@ -14921,6 +17771,18 @@
       <c r="H238" s="8" t="n">
         <v>30.9</v>
       </c>
+      <c r="I238" s="0" t="n">
+        <f aca="false">D238-E238</f>
+        <v>0.5</v>
+      </c>
+      <c r="J238" s="0" t="n">
+        <f aca="false">C238-F238</f>
+        <v>-13.1</v>
+      </c>
+      <c r="K238" s="0" t="n">
+        <f aca="false">G238-H238</f>
+        <v>0.800000000000001</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="n">
@@ -14947,6 +17809,18 @@
       <c r="H239" s="6" t="n">
         <v>30.3</v>
       </c>
+      <c r="I239" s="0" t="n">
+        <f aca="false">D239-E239</f>
+        <v>-3.3</v>
+      </c>
+      <c r="J239" s="0" t="n">
+        <f aca="false">C239-F239</f>
+        <v>-1.9</v>
+      </c>
+      <c r="K239" s="0" t="n">
+        <f aca="false">G239-H239</f>
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="n">
@@ -14973,6 +17847,18 @@
       <c r="H240" s="8" t="n">
         <v>25.7</v>
       </c>
+      <c r="I240" s="0" t="n">
+        <f aca="false">D240-E240</f>
+        <v>1.10000000000001</v>
+      </c>
+      <c r="J240" s="0" t="n">
+        <f aca="false">C240-F240</f>
+        <v>44</v>
+      </c>
+      <c r="K240" s="0" t="n">
+        <f aca="false">G240-H240</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="n">
@@ -14999,6 +17885,18 @@
       <c r="H241" s="6" t="n">
         <v>28.1</v>
       </c>
+      <c r="I241" s="0" t="n">
+        <f aca="false">D241-E241</f>
+        <v>-9.1</v>
+      </c>
+      <c r="J241" s="0" t="n">
+        <f aca="false">C241-F241</f>
+        <v>14.3</v>
+      </c>
+      <c r="K241" s="0" t="n">
+        <f aca="false">G241-H241</f>
+        <v>3.6</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="n">
@@ -15025,6 +17923,18 @@
       <c r="H242" s="8" t="n">
         <v>22.1</v>
       </c>
+      <c r="I242" s="0" t="n">
+        <f aca="false">D242-E242</f>
+        <v>-5.1</v>
+      </c>
+      <c r="J242" s="0" t="n">
+        <f aca="false">C242-F242</f>
+        <v>-1.8</v>
+      </c>
+      <c r="K242" s="0" t="n">
+        <f aca="false">G242-H242</f>
+        <v>-0.200000000000003</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="n">
@@ -15051,6 +17961,18 @@
       <c r="H243" s="6" t="n">
         <v>23.1</v>
       </c>
+      <c r="I243" s="0" t="n">
+        <f aca="false">D243-E243</f>
+        <v>-10.4</v>
+      </c>
+      <c r="J243" s="0" t="n">
+        <f aca="false">C243-F243</f>
+        <v>4.5</v>
+      </c>
+      <c r="K243" s="0" t="n">
+        <f aca="false">G243-H243</f>
+        <v>1.3</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="n">
@@ -15077,6 +17999,18 @@
       <c r="H244" s="8" t="n">
         <v>25.7</v>
       </c>
+      <c r="I244" s="0" t="n">
+        <f aca="false">D244-E244</f>
+        <v>-2.6</v>
+      </c>
+      <c r="J244" s="0" t="n">
+        <f aca="false">C244-F244</f>
+        <v>-6</v>
+      </c>
+      <c r="K244" s="0" t="n">
+        <f aca="false">G244-H244</f>
+        <v>-4.4</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="n">
@@ -15103,6 +18037,18 @@
       <c r="H245" s="6" t="n">
         <v>34.5</v>
       </c>
+      <c r="I245" s="0" t="n">
+        <f aca="false">D245-E245</f>
+        <v>-16.9</v>
+      </c>
+      <c r="J245" s="0" t="n">
+        <f aca="false">C245-F245</f>
+        <v>18.5</v>
+      </c>
+      <c r="K245" s="0" t="n">
+        <f aca="false">G245-H245</f>
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="n">
@@ -15129,6 +18075,18 @@
       <c r="H246" s="8" t="n">
         <v>29.1</v>
       </c>
+      <c r="I246" s="0" t="n">
+        <f aca="false">D246-E246</f>
+        <v>-10.7</v>
+      </c>
+      <c r="J246" s="0" t="n">
+        <f aca="false">C246-F246</f>
+        <v>-1.7</v>
+      </c>
+      <c r="K246" s="0" t="n">
+        <f aca="false">G246-H246</f>
+        <v>-4</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="n">
@@ -15155,6 +18113,18 @@
       <c r="H247" s="11" t="n">
         <v>19</v>
       </c>
+      <c r="I247" s="0" t="n">
+        <f aca="false">D247-E247</f>
+        <v>-4</v>
+      </c>
+      <c r="J247" s="0" t="n">
+        <f aca="false">C247-F247</f>
+        <v>13.5</v>
+      </c>
+      <c r="K247" s="0" t="n">
+        <f aca="false">G247-H247</f>
+        <v>-2</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="n">
@@ -15181,6 +18151,18 @@
       <c r="H248" s="9" t="n">
         <v>29</v>
       </c>
+      <c r="I248" s="0" t="n">
+        <f aca="false">D248-E248</f>
+        <v>-6.90000000000001</v>
+      </c>
+      <c r="J248" s="0" t="n">
+        <f aca="false">C248-F248</f>
+        <v>41.7</v>
+      </c>
+      <c r="K248" s="0" t="n">
+        <f aca="false">G248-H248</f>
+        <v>2.4</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="n">
@@ -15207,6 +18189,18 @@
       <c r="H249" s="6" t="n">
         <v>29.5</v>
       </c>
+      <c r="I249" s="0" t="n">
+        <f aca="false">D249-E249</f>
+        <v>-22.3</v>
+      </c>
+      <c r="J249" s="0" t="n">
+        <f aca="false">C249-F249</f>
+        <v>32.1</v>
+      </c>
+      <c r="K249" s="0" t="n">
+        <f aca="false">G249-H249</f>
+        <v>3.4</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="n">
@@ -15233,6 +18227,18 @@
       <c r="H250" s="8" t="n">
         <v>22.9</v>
       </c>
+      <c r="I250" s="0" t="n">
+        <f aca="false">D250-E250</f>
+        <v>-6.2</v>
+      </c>
+      <c r="J250" s="0" t="n">
+        <f aca="false">C250-F250</f>
+        <v>-8.7</v>
+      </c>
+      <c r="K250" s="0" t="n">
+        <f aca="false">G250-H250</f>
+        <v>-3.6</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="n">
@@ -15259,6 +18265,18 @@
       <c r="H251" s="6" t="n">
         <v>19.8</v>
       </c>
+      <c r="I251" s="0" t="n">
+        <f aca="false">D251-E251</f>
+        <v>0.199999999999999</v>
+      </c>
+      <c r="J251" s="0" t="n">
+        <f aca="false">C251-F251</f>
+        <v>-11.3</v>
+      </c>
+      <c r="K251" s="0" t="n">
+        <f aca="false">G251-H251</f>
+        <v>10.4</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="n">
@@ -15285,6 +18303,18 @@
       <c r="H252" s="8" t="n">
         <v>34.1</v>
       </c>
+      <c r="I252" s="0" t="n">
+        <f aca="false">D252-E252</f>
+        <v>-11.8</v>
+      </c>
+      <c r="J252" s="0" t="n">
+        <f aca="false">C252-F252</f>
+        <v>-1.9</v>
+      </c>
+      <c r="K252" s="0" t="n">
+        <f aca="false">G252-H252</f>
+        <v>-2.1</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="n">
@@ -15311,6 +18341,18 @@
       <c r="H253" s="6" t="n">
         <v>32.3</v>
       </c>
+      <c r="I253" s="0" t="n">
+        <f aca="false">D253-E253</f>
+        <v>-1.9</v>
+      </c>
+      <c r="J253" s="0" t="n">
+        <f aca="false">C253-F253</f>
+        <v>-16.6</v>
+      </c>
+      <c r="K253" s="0" t="n">
+        <f aca="false">G253-H253</f>
+        <v>-4.4</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="n">
@@ -15337,6 +18379,18 @@
       <c r="H254" s="8" t="n">
         <v>22.3</v>
       </c>
+      <c r="I254" s="0" t="n">
+        <f aca="false">D254-E254</f>
+        <v>-10.7</v>
+      </c>
+      <c r="J254" s="0" t="n">
+        <f aca="false">C254-F254</f>
+        <v>3.3</v>
+      </c>
+      <c r="K254" s="0" t="n">
+        <f aca="false">G254-H254</f>
+        <v>-0.300000000000001</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="n">
@@ -15363,6 +18417,18 @@
       <c r="H255" s="11" t="n">
         <v>26</v>
       </c>
+      <c r="I255" s="0" t="n">
+        <f aca="false">D255-E255</f>
+        <v>-15.1</v>
+      </c>
+      <c r="J255" s="0" t="n">
+        <f aca="false">C255-F255</f>
+        <v>8.1</v>
+      </c>
+      <c r="K255" s="0" t="n">
+        <f aca="false">G255-H255</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="n">
@@ -15389,6 +18455,18 @@
       <c r="H256" s="8" t="n">
         <v>17.7</v>
       </c>
+      <c r="I256" s="0" t="n">
+        <f aca="false">D256-E256</f>
+        <v>-11.2</v>
+      </c>
+      <c r="J256" s="0" t="n">
+        <f aca="false">C256-F256</f>
+        <v>9.8</v>
+      </c>
+      <c r="K256" s="0" t="n">
+        <f aca="false">G256-H256</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="n">
@@ -15415,6 +18493,18 @@
       <c r="H257" s="6" t="n">
         <v>26.5</v>
       </c>
+      <c r="I257" s="0" t="n">
+        <f aca="false">D257-E257</f>
+        <v>-22.3</v>
+      </c>
+      <c r="J257" s="0" t="n">
+        <f aca="false">C257-F257</f>
+        <v>16.3</v>
+      </c>
+      <c r="K257" s="0" t="n">
+        <f aca="false">G257-H257</f>
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="n">
@@ -15441,6 +18531,18 @@
       <c r="H258" s="8" t="n">
         <v>31.8</v>
       </c>
+      <c r="I258" s="0" t="n">
+        <f aca="false">D258-E258</f>
+        <v>-9.3</v>
+      </c>
+      <c r="J258" s="0" t="n">
+        <f aca="false">C258-F258</f>
+        <v>11.6</v>
+      </c>
+      <c r="K258" s="0" t="n">
+        <f aca="false">G258-H258</f>
+        <v>3.7</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="n">
@@ -15467,6 +18569,18 @@
       <c r="H259" s="6" t="n">
         <v>14.6</v>
       </c>
+      <c r="I259" s="0" t="n">
+        <f aca="false">D259-E259</f>
+        <v>3.8</v>
+      </c>
+      <c r="J259" s="0" t="n">
+        <f aca="false">C259-F259</f>
+        <v>8.7</v>
+      </c>
+      <c r="K259" s="0" t="n">
+        <f aca="false">G259-H259</f>
+        <v>8.9</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="n">
@@ -15493,6 +18607,18 @@
       <c r="H260" s="8" t="n">
         <v>23.7</v>
       </c>
+      <c r="I260" s="0" t="n">
+        <f aca="false">D260-E260</f>
+        <v>5.1</v>
+      </c>
+      <c r="J260" s="0" t="n">
+        <f aca="false">C260-F260</f>
+        <v>3.8</v>
+      </c>
+      <c r="K260" s="0" t="n">
+        <f aca="false">G260-H260</f>
+        <v>3.8</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="n">
@@ -15519,6 +18645,18 @@
       <c r="H261" s="6" t="n">
         <v>29.3</v>
       </c>
+      <c r="I261" s="0" t="n">
+        <f aca="false">D261-E261</f>
+        <v>-14.7</v>
+      </c>
+      <c r="J261" s="0" t="n">
+        <f aca="false">C261-F261</f>
+        <v>1.3</v>
+      </c>
+      <c r="K261" s="0" t="n">
+        <f aca="false">G261-H261</f>
+        <v>-3.5</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="n">
@@ -15545,6 +18683,18 @@
       <c r="H262" s="8" t="n">
         <v>10.3</v>
       </c>
+      <c r="I262" s="0" t="n">
+        <f aca="false">D262-E262</f>
+        <v>6.1</v>
+      </c>
+      <c r="J262" s="0" t="n">
+        <f aca="false">C262-F262</f>
+        <v>-10.6</v>
+      </c>
+      <c r="K262" s="0" t="n">
+        <f aca="false">G262-H262</f>
+        <v>9.8</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="n">
@@ -15571,6 +18721,18 @@
       <c r="H263" s="6" t="n">
         <v>34.6</v>
       </c>
+      <c r="I263" s="0" t="n">
+        <f aca="false">D263-E263</f>
+        <v>-17.4</v>
+      </c>
+      <c r="J263" s="0" t="n">
+        <f aca="false">C263-F263</f>
+        <v>-11.1</v>
+      </c>
+      <c r="K263" s="0" t="n">
+        <f aca="false">G263-H263</f>
+        <v>-6.7</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="n">
@@ -15597,6 +18759,18 @@
       <c r="H264" s="9" t="n">
         <v>16</v>
       </c>
+      <c r="I264" s="0" t="n">
+        <f aca="false">D264-E264</f>
+        <v>-10.2</v>
+      </c>
+      <c r="J264" s="0" t="n">
+        <f aca="false">C264-F264</f>
+        <v>15.8</v>
+      </c>
+      <c r="K264" s="0" t="n">
+        <f aca="false">G264-H264</f>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="n">
@@ -15623,6 +18797,18 @@
       <c r="H265" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I265" s="0" t="e">
+        <f aca="false">D265-E265</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J265" s="0" t="e">
+        <f aca="false">C265-F265</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K265" s="0" t="e">
+        <f aca="false">G265-H265</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="n">
@@ -15649,6 +18835,18 @@
       <c r="H266" s="8" t="n">
         <v>14.5</v>
       </c>
+      <c r="I266" s="0" t="n">
+        <f aca="false">D266-E266</f>
+        <v>-2.6</v>
+      </c>
+      <c r="J266" s="0" t="n">
+        <f aca="false">C266-F266</f>
+        <v>0.5</v>
+      </c>
+      <c r="K266" s="0" t="n">
+        <f aca="false">G266-H266</f>
+        <v>4.6</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="n">
@@ -15675,6 +18873,18 @@
       <c r="H267" s="6" t="n">
         <v>15.8</v>
       </c>
+      <c r="I267" s="0" t="n">
+        <f aca="false">D267-E267</f>
+        <v>-1.8</v>
+      </c>
+      <c r="J267" s="0" t="n">
+        <f aca="false">C267-F267</f>
+        <v>-12.8</v>
+      </c>
+      <c r="K267" s="0" t="n">
+        <f aca="false">G267-H267</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="n">
@@ -15701,6 +18911,18 @@
       <c r="H268" s="8" t="n">
         <v>14.8</v>
       </c>
+      <c r="I268" s="0" t="n">
+        <f aca="false">D268-E268</f>
+        <v>-6.3</v>
+      </c>
+      <c r="J268" s="0" t="n">
+        <f aca="false">C268-F268</f>
+        <v>7.3</v>
+      </c>
+      <c r="K268" s="0" t="n">
+        <f aca="false">G268-H268</f>
+        <v>2.3</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="n">
@@ -15727,6 +18949,18 @@
       <c r="H269" s="6" t="n">
         <v>37.2</v>
       </c>
+      <c r="I269" s="0" t="n">
+        <f aca="false">D269-E269</f>
+        <v>-8</v>
+      </c>
+      <c r="J269" s="0" t="n">
+        <f aca="false">C269-F269</f>
+        <v>-6.4</v>
+      </c>
+      <c r="K269" s="0" t="n">
+        <f aca="false">G269-H269</f>
+        <v>-0.800000000000004</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="n">
@@ -15753,6 +18987,18 @@
       <c r="H270" s="8" t="n">
         <v>13.5</v>
       </c>
+      <c r="I270" s="0" t="n">
+        <f aca="false">D270-E270</f>
+        <v>-5.9</v>
+      </c>
+      <c r="J270" s="0" t="n">
+        <f aca="false">C270-F270</f>
+        <v>10.6</v>
+      </c>
+      <c r="K270" s="0" t="n">
+        <f aca="false">G270-H270</f>
+        <v>-3.9</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="n">
@@ -15779,6 +19025,18 @@
       <c r="H271" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I271" s="0" t="e">
+        <f aca="false">D271-E271</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J271" s="0" t="e">
+        <f aca="false">C271-F271</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K271" s="0" t="e">
+        <f aca="false">G271-H271</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="n">
@@ -15805,6 +19063,18 @@
       <c r="H272" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I272" s="0" t="e">
+        <f aca="false">D272-E272</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J272" s="0" t="e">
+        <f aca="false">C272-F272</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K272" s="0" t="e">
+        <f aca="false">G272-H272</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="n">
@@ -15831,6 +19101,18 @@
       <c r="H273" s="8" t="n">
         <v>26.6</v>
       </c>
+      <c r="I273" s="0" t="n">
+        <f aca="false">D273-E273</f>
+        <v>-7.9</v>
+      </c>
+      <c r="J273" s="0" t="n">
+        <f aca="false">C273-F273</f>
+        <v>1.1</v>
+      </c>
+      <c r="K273" s="0" t="n">
+        <f aca="false">G273-H273</f>
+        <v>-0.700000000000003</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="n">
@@ -15857,6 +19139,18 @@
       <c r="H274" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I274" s="0" t="e">
+        <f aca="false">D274-E274</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J274" s="0" t="e">
+        <f aca="false">C274-F274</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K274" s="0" t="e">
+        <f aca="false">G274-H274</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="n">
@@ -15883,6 +19177,18 @@
       <c r="H275" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I275" s="0" t="e">
+        <f aca="false">D275-E275</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J275" s="0" t="e">
+        <f aca="false">C275-F275</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K275" s="0" t="e">
+        <f aca="false">G275-H275</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="n">
@@ -15909,6 +19215,18 @@
       <c r="H276" s="6" t="n">
         <v>27.1</v>
       </c>
+      <c r="I276" s="0" t="n">
+        <f aca="false">D276-E276</f>
+        <v>-6.1</v>
+      </c>
+      <c r="J276" s="0" t="n">
+        <f aca="false">C276-F276</f>
+        <v>-0.699999999999999</v>
+      </c>
+      <c r="K276" s="0" t="n">
+        <f aca="false">G276-H276</f>
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="n">
@@ -15935,6 +19253,18 @@
       <c r="H277" s="9" t="n">
         <v>27</v>
       </c>
+      <c r="I277" s="0" t="n">
+        <f aca="false">D277-E277</f>
+        <v>-6.3</v>
+      </c>
+      <c r="J277" s="0" t="n">
+        <f aca="false">C277-F277</f>
+        <v>-0.600000000000001</v>
+      </c>
+      <c r="K277" s="0" t="n">
+        <f aca="false">G277-H277</f>
+        <v>-1.3</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="n">
@@ -15961,6 +19291,18 @@
       <c r="H278" s="6" t="n">
         <v>27.1</v>
       </c>
+      <c r="I278" s="0" t="n">
+        <f aca="false">D278-E278</f>
+        <v>-6.1</v>
+      </c>
+      <c r="J278" s="0" t="n">
+        <f aca="false">C278-F278</f>
+        <v>-0.699999999999999</v>
+      </c>
+      <c r="K278" s="0" t="n">
+        <f aca="false">G278-H278</f>
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="n">
@@ -15987,6 +19329,18 @@
       <c r="H279" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I279" s="0" t="e">
+        <f aca="false">D279-E279</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J279" s="0" t="e">
+        <f aca="false">C279-F279</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K279" s="0" t="e">
+        <f aca="false">G279-H279</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="n">
@@ -16013,6 +19367,18 @@
       <c r="H280" s="11" t="n">
         <v>23</v>
       </c>
+      <c r="I280" s="0" t="n">
+        <f aca="false">D280-E280</f>
+        <v>-4.5</v>
+      </c>
+      <c r="J280" s="0" t="n">
+        <f aca="false">C280-F280</f>
+        <v>-5.9</v>
+      </c>
+      <c r="K280" s="0" t="n">
+        <f aca="false">G280-H280</f>
+        <v>0.600000000000001</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="n">
@@ -16039,6 +19405,18 @@
       <c r="H281" s="8" t="n">
         <v>20.1</v>
       </c>
+      <c r="I281" s="0" t="n">
+        <f aca="false">D281-E281</f>
+        <v>-14.8</v>
+      </c>
+      <c r="J281" s="0" t="n">
+        <f aca="false">C281-F281</f>
+        <v>31.5</v>
+      </c>
+      <c r="K281" s="0" t="n">
+        <f aca="false">G281-H281</f>
+        <v>6.9</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="n">
@@ -16065,6 +19443,18 @@
       <c r="H282" s="6" t="n">
         <v>17.6</v>
       </c>
+      <c r="I282" s="0" t="n">
+        <f aca="false">D282-E282</f>
+        <v>-15.7</v>
+      </c>
+      <c r="J282" s="0" t="n">
+        <f aca="false">C282-F282</f>
+        <v>11.9</v>
+      </c>
+      <c r="K282" s="0" t="n">
+        <f aca="false">G282-H282</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="n">
@@ -16091,6 +19481,18 @@
       <c r="H283" s="8" t="n">
         <v>33.6</v>
       </c>
+      <c r="I283" s="0" t="n">
+        <f aca="false">D283-E283</f>
+        <v>-0.899999999999999</v>
+      </c>
+      <c r="J283" s="0" t="n">
+        <f aca="false">C283-F283</f>
+        <v>-12.3</v>
+      </c>
+      <c r="K283" s="0" t="n">
+        <f aca="false">G283-H283</f>
+        <v>-4.3</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="n">
@@ -16117,6 +19519,18 @@
       <c r="H284" s="11" t="n">
         <v>27</v>
       </c>
+      <c r="I284" s="0" t="n">
+        <f aca="false">D284-E284</f>
+        <v>-1.7</v>
+      </c>
+      <c r="J284" s="0" t="n">
+        <f aca="false">C284-F284</f>
+        <v>2</v>
+      </c>
+      <c r="K284" s="0" t="n">
+        <f aca="false">G284-H284</f>
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="n">
@@ -16143,6 +19557,18 @@
       <c r="H285" s="8" t="n">
         <v>27.7</v>
       </c>
+      <c r="I285" s="0" t="n">
+        <f aca="false">D285-E285</f>
+        <v>-10.2</v>
+      </c>
+      <c r="J285" s="0" t="n">
+        <f aca="false">C285-F285</f>
+        <v>45.2</v>
+      </c>
+      <c r="K285" s="0" t="n">
+        <f aca="false">G285-H285</f>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="n">
@@ -16169,6 +19595,18 @@
       <c r="H286" s="6" t="n">
         <v>36.5</v>
       </c>
+      <c r="I286" s="0" t="n">
+        <f aca="false">D286-E286</f>
+        <v>-15.6</v>
+      </c>
+      <c r="J286" s="0" t="n">
+        <f aca="false">C286-F286</f>
+        <v>11.9</v>
+      </c>
+      <c r="K286" s="0" t="n">
+        <f aca="false">G286-H286</f>
+        <v>-0.100000000000001</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="n">
@@ -16195,6 +19633,18 @@
       <c r="H287" s="8" t="n">
         <v>21.2</v>
       </c>
+      <c r="I287" s="0" t="n">
+        <f aca="false">D287-E287</f>
+        <v>-5</v>
+      </c>
+      <c r="J287" s="0" t="n">
+        <f aca="false">C287-F287</f>
+        <v>-1.1</v>
+      </c>
+      <c r="K287" s="0" t="n">
+        <f aca="false">G287-H287</f>
+        <v>3.2</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="n">
@@ -16221,6 +19671,18 @@
       <c r="H288" s="6" t="n">
         <v>28.2</v>
       </c>
+      <c r="I288" s="0" t="n">
+        <f aca="false">D288-E288</f>
+        <v>-12</v>
+      </c>
+      <c r="J288" s="0" t="n">
+        <f aca="false">C288-F288</f>
+        <v>1.3</v>
+      </c>
+      <c r="K288" s="0" t="n">
+        <f aca="false">G288-H288</f>
+        <v>-3.1</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="n">
@@ -16247,6 +19709,18 @@
       <c r="H289" s="8" t="n">
         <v>24.2</v>
       </c>
+      <c r="I289" s="0" t="n">
+        <f aca="false">D289-E289</f>
+        <v>-4.4</v>
+      </c>
+      <c r="J289" s="0" t="n">
+        <f aca="false">C289-F289</f>
+        <v>-3.7</v>
+      </c>
+      <c r="K289" s="0" t="n">
+        <f aca="false">G289-H289</f>
+        <v>-2.6</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="n">
@@ -16273,6 +19747,18 @@
       <c r="H290" s="6" t="n">
         <v>35.4</v>
       </c>
+      <c r="I290" s="0" t="n">
+        <f aca="false">D290-E290</f>
+        <v>-22.6</v>
+      </c>
+      <c r="J290" s="0" t="n">
+        <f aca="false">C290-F290</f>
+        <v>21.4</v>
+      </c>
+      <c r="K290" s="0" t="n">
+        <f aca="false">G290-H290</f>
+        <v>-2.7</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="n">
@@ -16299,6 +19785,18 @@
       <c r="H291" s="8" t="n">
         <v>27.5</v>
       </c>
+      <c r="I291" s="0" t="n">
+        <f aca="false">D291-E291</f>
+        <v>-8.6</v>
+      </c>
+      <c r="J291" s="0" t="n">
+        <f aca="false">C291-F291</f>
+        <v>-4.2</v>
+      </c>
+      <c r="K291" s="0" t="n">
+        <f aca="false">G291-H291</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="n">
@@ -16325,6 +19823,18 @@
       <c r="H292" s="6" t="n">
         <v>21.1</v>
       </c>
+      <c r="I292" s="0" t="n">
+        <f aca="false">D292-E292</f>
+        <v>-6.3</v>
+      </c>
+      <c r="J292" s="0" t="n">
+        <f aca="false">C292-F292</f>
+        <v>11.7</v>
+      </c>
+      <c r="K292" s="0" t="n">
+        <f aca="false">G292-H292</f>
+        <v>-6.2</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="n">
@@ -16351,6 +19861,18 @@
       <c r="H293" s="8" t="n">
         <v>38.9</v>
       </c>
+      <c r="I293" s="0" t="n">
+        <f aca="false">D293-E293</f>
+        <v>-12</v>
+      </c>
+      <c r="J293" s="0" t="n">
+        <f aca="false">C293-F293</f>
+        <v>38.5</v>
+      </c>
+      <c r="K293" s="0" t="n">
+        <f aca="false">G293-H293</f>
+        <v>-8.2</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="n">
@@ -16377,6 +19899,18 @@
       <c r="H294" s="6" t="n">
         <v>29.5</v>
       </c>
+      <c r="I294" s="0" t="n">
+        <f aca="false">D294-E294</f>
+        <v>-21.7</v>
+      </c>
+      <c r="J294" s="0" t="n">
+        <f aca="false">C294-F294</f>
+        <v>30.9</v>
+      </c>
+      <c r="K294" s="0" t="n">
+        <f aca="false">G294-H294</f>
+        <v>1.9</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="n">
@@ -16403,6 +19937,18 @@
       <c r="H295" s="9" t="n">
         <v>17</v>
       </c>
+      <c r="I295" s="0" t="n">
+        <f aca="false">D295-E295</f>
+        <v>1.9</v>
+      </c>
+      <c r="J295" s="0" t="n">
+        <f aca="false">C295-F295</f>
+        <v>-6.7</v>
+      </c>
+      <c r="K295" s="0" t="n">
+        <f aca="false">G295-H295</f>
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="n">
@@ -16429,6 +19975,18 @@
       <c r="H296" s="6" t="n">
         <v>15.8</v>
       </c>
+      <c r="I296" s="0" t="n">
+        <f aca="false">D296-E296</f>
+        <v>-5</v>
+      </c>
+      <c r="J296" s="0" t="n">
+        <f aca="false">C296-F296</f>
+        <v>1.9</v>
+      </c>
+      <c r="K296" s="0" t="n">
+        <f aca="false">G296-H296</f>
+        <v>11.8</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="n">
@@ -16455,6 +20013,18 @@
       <c r="H297" s="8" t="n">
         <v>29.2</v>
       </c>
+      <c r="I297" s="0" t="n">
+        <f aca="false">D297-E297</f>
+        <v>-17.5</v>
+      </c>
+      <c r="J297" s="0" t="n">
+        <f aca="false">C297-F297</f>
+        <v>8.3</v>
+      </c>
+      <c r="K297" s="0" t="n">
+        <f aca="false">G297-H297</f>
+        <v>-2.5</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="n">
@@ -16481,6 +20051,18 @@
       <c r="H298" s="6" t="n">
         <v>40.2</v>
       </c>
+      <c r="I298" s="0" t="n">
+        <f aca="false">D298-E298</f>
+        <v>-3.5</v>
+      </c>
+      <c r="J298" s="0" t="n">
+        <f aca="false">C298-F298</f>
+        <v>-18.9</v>
+      </c>
+      <c r="K298" s="0" t="n">
+        <f aca="false">G298-H298</f>
+        <v>-2.5</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="n">
@@ -16507,6 +20089,18 @@
       <c r="H299" s="8" t="n">
         <v>21.7</v>
       </c>
+      <c r="I299" s="0" t="n">
+        <f aca="false">D299-E299</f>
+        <v>-13.4</v>
+      </c>
+      <c r="J299" s="0" t="n">
+        <f aca="false">C299-F299</f>
+        <v>3.2</v>
+      </c>
+      <c r="K299" s="0" t="n">
+        <f aca="false">G299-H299</f>
+        <v>0.300000000000001</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="n">
@@ -16533,6 +20127,18 @@
       <c r="H300" s="6" t="n">
         <v>25.7</v>
       </c>
+      <c r="I300" s="0" t="n">
+        <f aca="false">D300-E300</f>
+        <v>-12.7</v>
+      </c>
+      <c r="J300" s="0" t="n">
+        <f aca="false">C300-F300</f>
+        <v>10.4</v>
+      </c>
+      <c r="K300" s="0" t="n">
+        <f aca="false">G300-H300</f>
+        <v>2.9</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="n">
@@ -16559,6 +20165,18 @@
       <c r="H301" s="9" t="n">
         <v>21</v>
       </c>
+      <c r="I301" s="0" t="n">
+        <f aca="false">D301-E301</f>
+        <v>-15.7</v>
+      </c>
+      <c r="J301" s="0" t="n">
+        <f aca="false">C301-F301</f>
+        <v>9.6</v>
+      </c>
+      <c r="K301" s="0" t="n">
+        <f aca="false">G301-H301</f>
+        <v>-4.9</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="n">
@@ -16585,6 +20203,18 @@
       <c r="H302" s="6" t="n">
         <v>26.9</v>
       </c>
+      <c r="I302" s="0" t="n">
+        <f aca="false">D302-E302</f>
+        <v>-16.8</v>
+      </c>
+      <c r="J302" s="0" t="n">
+        <f aca="false">C302-F302</f>
+        <v>6.8</v>
+      </c>
+      <c r="K302" s="0" t="n">
+        <f aca="false">G302-H302</f>
+        <v>0.800000000000001</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="n">
@@ -16611,6 +20241,18 @@
       <c r="H303" s="8" t="n">
         <v>34.4</v>
       </c>
+      <c r="I303" s="0" t="n">
+        <f aca="false">D303-E303</f>
+        <v>-6.7</v>
+      </c>
+      <c r="J303" s="0" t="n">
+        <f aca="false">C303-F303</f>
+        <v>8.1</v>
+      </c>
+      <c r="K303" s="0" t="n">
+        <f aca="false">G303-H303</f>
+        <v>-4.1</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="n">
@@ -16637,6 +20279,18 @@
       <c r="H304" s="6" t="n">
         <v>18.8</v>
       </c>
+      <c r="I304" s="0" t="n">
+        <f aca="false">D304-E304</f>
+        <v>-0.100000000000001</v>
+      </c>
+      <c r="J304" s="0" t="n">
+        <f aca="false">C304-F304</f>
+        <v>7.7</v>
+      </c>
+      <c r="K304" s="0" t="n">
+        <f aca="false">G304-H304</f>
+        <v>4.2</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="n">
@@ -16663,6 +20317,18 @@
       <c r="H305" s="8" t="n">
         <v>22.3</v>
       </c>
+      <c r="I305" s="0" t="n">
+        <f aca="false">D305-E305</f>
+        <v>4.6</v>
+      </c>
+      <c r="J305" s="0" t="n">
+        <f aca="false">C305-F305</f>
+        <v>1.6</v>
+      </c>
+      <c r="K305" s="0" t="n">
+        <f aca="false">G305-H305</f>
+        <v>5.7</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="n">
@@ -16689,6 +20355,18 @@
       <c r="H306" s="6" t="n">
         <v>25.6</v>
       </c>
+      <c r="I306" s="0" t="n">
+        <f aca="false">D306-E306</f>
+        <v>-15.4</v>
+      </c>
+      <c r="J306" s="0" t="n">
+        <f aca="false">C306-F306</f>
+        <v>-3.3</v>
+      </c>
+      <c r="K306" s="0" t="n">
+        <f aca="false">G306-H306</f>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="n">
@@ -16715,6 +20393,18 @@
       <c r="H307" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I307" s="0" t="e">
+        <f aca="false">D307-E307</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J307" s="0" t="e">
+        <f aca="false">C307-F307</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K307" s="0" t="e">
+        <f aca="false">G307-H307</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="n">
@@ -16741,6 +20431,18 @@
       <c r="H308" s="6" t="n">
         <v>32.4</v>
       </c>
+      <c r="I308" s="0" t="n">
+        <f aca="false">D308-E308</f>
+        <v>-13.1</v>
+      </c>
+      <c r="J308" s="0" t="n">
+        <f aca="false">C308-F308</f>
+        <v>-13.2</v>
+      </c>
+      <c r="K308" s="0" t="n">
+        <f aca="false">G308-H308</f>
+        <v>-6.4</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="n">
@@ -16767,6 +20469,18 @@
       <c r="H309" s="8" t="n">
         <v>19.9</v>
       </c>
+      <c r="I309" s="0" t="n">
+        <f aca="false">D309-E309</f>
+        <v>-10.2</v>
+      </c>
+      <c r="J309" s="0" t="n">
+        <f aca="false">C309-F309</f>
+        <v>14.8</v>
+      </c>
+      <c r="K309" s="0" t="n">
+        <f aca="false">G309-H309</f>
+        <v>-3.1</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="n">
@@ -16793,6 +20507,18 @@
       <c r="H310" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I310" s="0" t="e">
+        <f aca="false">D310-E310</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J310" s="0" t="e">
+        <f aca="false">C310-F310</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K310" s="0" t="e">
+        <f aca="false">G310-H310</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="n">
@@ -16819,6 +20545,18 @@
       <c r="H311" s="8" t="n">
         <v>15.2</v>
       </c>
+      <c r="I311" s="0" t="n">
+        <f aca="false">D311-E311</f>
+        <v>-9.7</v>
+      </c>
+      <c r="J311" s="0" t="n">
+        <f aca="false">C311-F311</f>
+        <v>-5.6</v>
+      </c>
+      <c r="K311" s="0" t="n">
+        <f aca="false">G311-H311</f>
+        <v>4.8</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="n">
@@ -16845,6 +20583,18 @@
       <c r="H312" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I312" s="0" t="e">
+        <f aca="false">D312-E312</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J312" s="0" t="e">
+        <f aca="false">C312-F312</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K312" s="0" t="e">
+        <f aca="false">G312-H312</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="n">
@@ -16871,6 +20621,18 @@
       <c r="H313" s="9" t="n">
         <v>18</v>
       </c>
+      <c r="I313" s="0" t="n">
+        <f aca="false">D313-E313</f>
+        <v>-2.9</v>
+      </c>
+      <c r="J313" s="0" t="n">
+        <f aca="false">C313-F313</f>
+        <v>6.1</v>
+      </c>
+      <c r="K313" s="0" t="n">
+        <f aca="false">G313-H313</f>
+        <v>-4.2</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="n">
@@ -16897,6 +20659,18 @@
       <c r="H314" s="6" t="n">
         <v>37.6</v>
       </c>
+      <c r="I314" s="0" t="n">
+        <f aca="false">D314-E314</f>
+        <v>-8.7</v>
+      </c>
+      <c r="J314" s="0" t="n">
+        <f aca="false">C314-F314</f>
+        <v>-2.3</v>
+      </c>
+      <c r="K314" s="0" t="n">
+        <f aca="false">G314-H314</f>
+        <v>-2.3</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="n">
@@ -16923,6 +20697,18 @@
       <c r="H315" s="8" t="n">
         <v>9.6</v>
       </c>
+      <c r="I315" s="0" t="n">
+        <f aca="false">D315-E315</f>
+        <v>-3.6</v>
+      </c>
+      <c r="J315" s="0" t="n">
+        <f aca="false">C315-F315</f>
+        <v>4.5</v>
+      </c>
+      <c r="K315" s="0" t="n">
+        <f aca="false">G315-H315</f>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="n">
@@ -16949,6 +20735,18 @@
       <c r="H316" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I316" s="0" t="e">
+        <f aca="false">D316-E316</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J316" s="0" t="e">
+        <f aca="false">C316-F316</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K316" s="0" t="e">
+        <f aca="false">G316-H316</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="n">
@@ -16975,6 +20773,18 @@
       <c r="H317" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I317" s="0" t="e">
+        <f aca="false">D317-E317</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J317" s="0" t="e">
+        <f aca="false">C317-F317</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K317" s="0" t="e">
+        <f aca="false">G317-H317</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="n">
@@ -17001,6 +20811,18 @@
       <c r="H318" s="9" t="n">
         <v>26</v>
       </c>
+      <c r="I318" s="0" t="n">
+        <f aca="false">D318-E318</f>
+        <v>-8.6</v>
+      </c>
+      <c r="J318" s="0" t="n">
+        <f aca="false">C318-F318</f>
+        <v>3.1</v>
+      </c>
+      <c r="K318" s="0" t="n">
+        <f aca="false">G318-H318</f>
+        <v>-2.1</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="n">
@@ -17027,6 +20849,18 @@
       <c r="H319" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I319" s="0" t="e">
+        <f aca="false">D319-E319</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J319" s="0" t="e">
+        <f aca="false">C319-F319</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K319" s="0" t="e">
+        <f aca="false">G319-H319</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="n">
@@ -17053,6 +20887,18 @@
       <c r="H320" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I320" s="0" t="e">
+        <f aca="false">D320-E320</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J320" s="0" t="e">
+        <f aca="false">C320-F320</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K320" s="0" t="e">
+        <f aca="false">G320-H320</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="n">
@@ -17079,6 +20925,18 @@
       <c r="H321" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I321" s="0" t="e">
+        <f aca="false">D321-E321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J321" s="0" t="e">
+        <f aca="false">C321-F321</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K321" s="0" t="e">
+        <f aca="false">G321-H321</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="n">
@@ -17105,6 +20963,18 @@
       <c r="H322" s="8" t="n">
         <v>26.1</v>
       </c>
+      <c r="I322" s="0" t="n">
+        <f aca="false">D322-E322</f>
+        <v>-7.8</v>
+      </c>
+      <c r="J322" s="0" t="n">
+        <f aca="false">C322-F322</f>
+        <v>1.9</v>
+      </c>
+      <c r="K322" s="0" t="n">
+        <f aca="false">G322-H322</f>
+        <v>-2.7</v>
+      </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="n">
@@ -17131,6 +21001,18 @@
       <c r="H323" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I323" s="0" t="e">
+        <f aca="false">D323-E323</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J323" s="0" t="e">
+        <f aca="false">C323-F323</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K323" s="0" t="e">
+        <f aca="false">G323-H323</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="n">
@@ -17157,6 +21039,18 @@
       <c r="H324" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I324" s="0" t="e">
+        <f aca="false">D324-E324</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J324" s="0" t="e">
+        <f aca="false">C324-F324</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K324" s="0" t="e">
+        <f aca="false">G324-H324</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="n">
@@ -17183,6 +21077,18 @@
       <c r="H325" s="6" t="n">
         <v>20.9</v>
       </c>
+      <c r="I325" s="0" t="n">
+        <f aca="false">D325-E325</f>
+        <v>-1.2</v>
+      </c>
+      <c r="J325" s="0" t="n">
+        <f aca="false">C325-F325</f>
+        <v>-0.699999999999999</v>
+      </c>
+      <c r="K325" s="0" t="n">
+        <f aca="false">G325-H325</f>
+        <v>0.200000000000003</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="n">
@@ -17209,6 +21115,18 @@
       <c r="H326" s="8" t="n">
         <v>24.7</v>
       </c>
+      <c r="I326" s="0" t="n">
+        <f aca="false">D326-E326</f>
+        <v>-23.5</v>
+      </c>
+      <c r="J326" s="0" t="n">
+        <f aca="false">C326-F326</f>
+        <v>35.3</v>
+      </c>
+      <c r="K326" s="0" t="n">
+        <f aca="false">G326-H326</f>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="n">
@@ -17235,6 +21153,18 @@
       <c r="H327" s="6" t="n">
         <v>18.9</v>
       </c>
+      <c r="I327" s="0" t="n">
+        <f aca="false">D327-E327</f>
+        <v>-18.6</v>
+      </c>
+      <c r="J327" s="0" t="n">
+        <f aca="false">C327-F327</f>
+        <v>22.4</v>
+      </c>
+      <c r="K327" s="0" t="n">
+        <f aca="false">G327-H327</f>
+        <v>-6.5</v>
+      </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="n">
@@ -17261,6 +21191,18 @@
       <c r="H328" s="8" t="n">
         <v>32.6</v>
       </c>
+      <c r="I328" s="0" t="n">
+        <f aca="false">D328-E328</f>
+        <v>1.7</v>
+      </c>
+      <c r="J328" s="0" t="n">
+        <f aca="false">C328-F328</f>
+        <v>-11</v>
+      </c>
+      <c r="K328" s="0" t="n">
+        <f aca="false">G328-H328</f>
+        <v>-2.2</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="n">
@@ -17287,6 +21229,18 @@
       <c r="H329" s="6" t="n">
         <v>26.1</v>
       </c>
+      <c r="I329" s="0" t="n">
+        <f aca="false">D329-E329</f>
+        <v>-4.2</v>
+      </c>
+      <c r="J329" s="0" t="n">
+        <f aca="false">C329-F329</f>
+        <v>2.9</v>
+      </c>
+      <c r="K329" s="0" t="n">
+        <f aca="false">G329-H329</f>
+        <v>-2.4</v>
+      </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="n">
@@ -17313,6 +21267,18 @@
       <c r="H330" s="8" t="n">
         <v>24.8</v>
       </c>
+      <c r="I330" s="0" t="n">
+        <f aca="false">D330-E330</f>
+        <v>-5.10000000000001</v>
+      </c>
+      <c r="J330" s="0" t="n">
+        <f aca="false">C330-F330</f>
+        <v>49.9</v>
+      </c>
+      <c r="K330" s="0" t="n">
+        <f aca="false">G330-H330</f>
+        <v>12.3</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="n">
@@ -17339,6 +21305,18 @@
       <c r="H331" s="6" t="n">
         <v>35.1</v>
       </c>
+      <c r="I331" s="0" t="n">
+        <f aca="false">D331-E331</f>
+        <v>-13.3</v>
+      </c>
+      <c r="J331" s="0" t="n">
+        <f aca="false">C331-F331</f>
+        <v>16.4</v>
+      </c>
+      <c r="K331" s="0" t="n">
+        <f aca="false">G331-H331</f>
+        <v>3.6</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="n">
@@ -17365,6 +21343,18 @@
       <c r="H332" s="8" t="n">
         <v>21.6</v>
       </c>
+      <c r="I332" s="0" t="n">
+        <f aca="false">D332-E332</f>
+        <v>-10.3</v>
+      </c>
+      <c r="J332" s="0" t="n">
+        <f aca="false">C332-F332</f>
+        <v>-0.699999999999999</v>
+      </c>
+      <c r="K332" s="0" t="n">
+        <f aca="false">G332-H332</f>
+        <v>1.4</v>
+      </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="n">
@@ -17391,6 +21381,18 @@
       <c r="H333" s="6" t="n">
         <v>24.7</v>
       </c>
+      <c r="I333" s="0" t="n">
+        <f aca="false">D333-E333</f>
+        <v>-11.1</v>
+      </c>
+      <c r="J333" s="0" t="n">
+        <f aca="false">C333-F333</f>
+        <v>4.8</v>
+      </c>
+      <c r="K333" s="0" t="n">
+        <f aca="false">G333-H333</f>
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="n">
@@ -17417,6 +21419,18 @@
       <c r="H334" s="8" t="n">
         <v>23.6</v>
       </c>
+      <c r="I334" s="0" t="n">
+        <f aca="false">D334-E334</f>
+        <v>-5.2</v>
+      </c>
+      <c r="J334" s="0" t="n">
+        <f aca="false">C334-F334</f>
+        <v>-2</v>
+      </c>
+      <c r="K334" s="0" t="n">
+        <f aca="false">G334-H334</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
@@ -17443,6 +21457,18 @@
       <c r="H335" s="6" t="n">
         <v>34.3</v>
       </c>
+      <c r="I335" s="0" t="n">
+        <f aca="false">D335-E335</f>
+        <v>-18.2</v>
+      </c>
+      <c r="J335" s="0" t="n">
+        <f aca="false">C335-F335</f>
+        <v>25.2</v>
+      </c>
+      <c r="K335" s="0" t="n">
+        <f aca="false">G335-H335</f>
+        <v>-5.6</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
@@ -17469,6 +21495,18 @@
       <c r="H336" s="8" t="n">
         <v>27.3</v>
       </c>
+      <c r="I336" s="0" t="n">
+        <f aca="false">D336-E336</f>
+        <v>-11</v>
+      </c>
+      <c r="J336" s="0" t="n">
+        <f aca="false">C336-F336</f>
+        <v>3</v>
+      </c>
+      <c r="K336" s="0" t="n">
+        <f aca="false">G336-H336</f>
+        <v>-7.1</v>
+      </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
@@ -17495,6 +21533,18 @@
       <c r="H337" s="11" t="n">
         <v>23</v>
       </c>
+      <c r="I337" s="0" t="n">
+        <f aca="false">D337-E337</f>
+        <v>-1.3</v>
+      </c>
+      <c r="J337" s="0" t="n">
+        <f aca="false">C337-F337</f>
+        <v>13.4</v>
+      </c>
+      <c r="K337" s="0" t="n">
+        <f aca="false">G337-H337</f>
+        <v>-9.8</v>
+      </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
@@ -17521,6 +21571,18 @@
       <c r="H338" s="8" t="n">
         <v>30.4</v>
       </c>
+      <c r="I338" s="0" t="n">
+        <f aca="false">D338-E338</f>
+        <v>-12.4</v>
+      </c>
+      <c r="J338" s="0" t="n">
+        <f aca="false">C338-F338</f>
+        <v>39.5</v>
+      </c>
+      <c r="K338" s="0" t="n">
+        <f aca="false">G338-H338</f>
+        <v>-3.1</v>
+      </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
@@ -17547,6 +21609,18 @@
       <c r="H339" s="11" t="n">
         <v>25</v>
       </c>
+      <c r="I339" s="0" t="n">
+        <f aca="false">D339-E339</f>
+        <v>-20.6</v>
+      </c>
+      <c r="J339" s="0" t="n">
+        <f aca="false">C339-F339</f>
+        <v>37</v>
+      </c>
+      <c r="K339" s="0" t="n">
+        <f aca="false">G339-H339</f>
+        <v>3.8</v>
+      </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
@@ -17573,6 +21647,18 @@
       <c r="H340" s="8" t="n">
         <v>20.8</v>
       </c>
+      <c r="I340" s="0" t="n">
+        <f aca="false">D340-E340</f>
+        <v>-11</v>
+      </c>
+      <c r="J340" s="0" t="n">
+        <f aca="false">C340-F340</f>
+        <v>-5.8</v>
+      </c>
+      <c r="K340" s="0" t="n">
+        <f aca="false">G340-H340</f>
+        <v>-2.9</v>
+      </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
@@ -17599,6 +21685,18 @@
       <c r="H341" s="6" t="n">
         <v>29.7</v>
       </c>
+      <c r="I341" s="0" t="n">
+        <f aca="false">D341-E341</f>
+        <v>-5.6</v>
+      </c>
+      <c r="J341" s="0" t="n">
+        <f aca="false">C341-F341</f>
+        <v>-12.3</v>
+      </c>
+      <c r="K341" s="0" t="n">
+        <f aca="false">G341-H341</f>
+        <v>0.100000000000001</v>
+      </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
@@ -17625,6 +21723,18 @@
       <c r="H342" s="8" t="n">
         <v>29.7</v>
       </c>
+      <c r="I342" s="0" t="n">
+        <f aca="false">D342-E342</f>
+        <v>-18</v>
+      </c>
+      <c r="J342" s="0" t="n">
+        <f aca="false">C342-F342</f>
+        <v>14.4</v>
+      </c>
+      <c r="K342" s="0" t="n">
+        <f aca="false">G342-H342</f>
+        <v>-2.7</v>
+      </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
@@ -17651,6 +21761,18 @@
       <c r="H343" s="6" t="n">
         <v>37.5</v>
       </c>
+      <c r="I343" s="0" t="n">
+        <f aca="false">D343-E343</f>
+        <v>-8.9</v>
+      </c>
+      <c r="J343" s="0" t="n">
+        <f aca="false">C343-F343</f>
+        <v>-14.8</v>
+      </c>
+      <c r="K343" s="0" t="n">
+        <f aca="false">G343-H343</f>
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
@@ -17677,6 +21799,18 @@
       <c r="H344" s="8" t="n">
         <v>24.2</v>
       </c>
+      <c r="I344" s="0" t="n">
+        <f aca="false">D344-E344</f>
+        <v>-9.6</v>
+      </c>
+      <c r="J344" s="0" t="n">
+        <f aca="false">C344-F344</f>
+        <v>1</v>
+      </c>
+      <c r="K344" s="0" t="n">
+        <f aca="false">G344-H344</f>
+        <v>-2.9</v>
+      </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
@@ -17703,6 +21837,18 @@
       <c r="H345" s="6" t="n">
         <v>20.4</v>
       </c>
+      <c r="I345" s="0" t="n">
+        <f aca="false">D345-E345</f>
+        <v>-12</v>
+      </c>
+      <c r="J345" s="0" t="n">
+        <f aca="false">C345-F345</f>
+        <v>9.9</v>
+      </c>
+      <c r="K345" s="0" t="n">
+        <f aca="false">G345-H345</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="n">
@@ -17729,6 +21875,18 @@
       <c r="H346" s="8" t="n">
         <v>19.2</v>
       </c>
+      <c r="I346" s="0" t="n">
+        <f aca="false">D346-E346</f>
+        <v>-12.7</v>
+      </c>
+      <c r="J346" s="0" t="n">
+        <f aca="false">C346-F346</f>
+        <v>8.2</v>
+      </c>
+      <c r="K346" s="0" t="n">
+        <f aca="false">G346-H346</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
@@ -17755,6 +21913,18 @@
       <c r="H347" s="6" t="n">
         <v>26.8</v>
       </c>
+      <c r="I347" s="0" t="n">
+        <f aca="false">D347-E347</f>
+        <v>-12.3</v>
+      </c>
+      <c r="J347" s="0" t="n">
+        <f aca="false">C347-F347</f>
+        <v>5</v>
+      </c>
+      <c r="K347" s="0" t="n">
+        <f aca="false">G347-H347</f>
+        <v>0.599999999999998</v>
+      </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
@@ -17781,6 +21951,18 @@
       <c r="H348" s="8" t="n">
         <v>31.2</v>
       </c>
+      <c r="I348" s="0" t="n">
+        <f aca="false">D348-E348</f>
+        <v>-0.399999999999999</v>
+      </c>
+      <c r="J348" s="0" t="n">
+        <f aca="false">C348-F348</f>
+        <v>5.7</v>
+      </c>
+      <c r="K348" s="0" t="n">
+        <f aca="false">G348-H348</f>
+        <v>6.8</v>
+      </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="n">
@@ -17807,6 +21989,18 @@
       <c r="H349" s="11" t="n">
         <v>26</v>
       </c>
+      <c r="I349" s="0" t="n">
+        <f aca="false">D349-E349</f>
+        <v>-2.9</v>
+      </c>
+      <c r="J349" s="0" t="n">
+        <f aca="false">C349-F349</f>
+        <v>2.2</v>
+      </c>
+      <c r="K349" s="0" t="n">
+        <f aca="false">G349-H349</f>
+        <v>-4.9</v>
+      </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="n">
@@ -17833,6 +22027,18 @@
       <c r="H350" s="8" t="n">
         <v>28.3</v>
       </c>
+      <c r="I350" s="0" t="n">
+        <f aca="false">D350-E350</f>
+        <v>-6.1</v>
+      </c>
+      <c r="J350" s="0" t="n">
+        <f aca="false">C350-F350</f>
+        <v>0.599999999999998</v>
+      </c>
+      <c r="K350" s="0" t="n">
+        <f aca="false">G350-H350</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
@@ -17859,6 +22065,18 @@
       <c r="H351" s="6" t="n">
         <v>26.1</v>
       </c>
+      <c r="I351" s="0" t="n">
+        <f aca="false">D351-E351</f>
+        <v>-8.6</v>
+      </c>
+      <c r="J351" s="0" t="n">
+        <f aca="false">C351-F351</f>
+        <v>0.199999999999999</v>
+      </c>
+      <c r="K351" s="0" t="n">
+        <f aca="false">G351-H351</f>
+        <v>2.3</v>
+      </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="n">
@@ -17885,6 +22103,18 @@
       <c r="H352" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I352" s="0" t="e">
+        <f aca="false">D352-E352</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J352" s="0" t="e">
+        <f aca="false">C352-F352</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K352" s="0" t="e">
+        <f aca="false">G352-H352</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="n">
@@ -17911,6 +22141,18 @@
       <c r="H353" s="6" t="n">
         <v>32.2</v>
       </c>
+      <c r="I353" s="0" t="n">
+        <f aca="false">D353-E353</f>
+        <v>-9</v>
+      </c>
+      <c r="J353" s="0" t="n">
+        <f aca="false">C353-F353</f>
+        <v>-9.7</v>
+      </c>
+      <c r="K353" s="0" t="n">
+        <f aca="false">G353-H353</f>
+        <v>-7.2</v>
+      </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="n">
@@ -17937,6 +22179,18 @@
       <c r="H354" s="8" t="n">
         <v>19.3</v>
       </c>
+      <c r="I354" s="0" t="n">
+        <f aca="false">D354-E354</f>
+        <v>-8.2</v>
+      </c>
+      <c r="J354" s="0" t="n">
+        <f aca="false">C354-F354</f>
+        <v>15.5</v>
+      </c>
+      <c r="K354" s="0" t="n">
+        <f aca="false">G354-H354</f>
+        <v>-0.5</v>
+      </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
@@ -17963,6 +22217,18 @@
       <c r="H355" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I355" s="0" t="e">
+        <f aca="false">D355-E355</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J355" s="0" t="e">
+        <f aca="false">C355-F355</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K355" s="0" t="e">
+        <f aca="false">G355-H355</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="n">
@@ -17989,6 +22255,18 @@
       <c r="H356" s="8" t="n">
         <v>15.4</v>
       </c>
+      <c r="I356" s="0" t="n">
+        <f aca="false">D356-E356</f>
+        <v>-5.1</v>
+      </c>
+      <c r="J356" s="0" t="n">
+        <f aca="false">C356-F356</f>
+        <v>-3.7</v>
+      </c>
+      <c r="K356" s="0" t="n">
+        <f aca="false">G356-H356</f>
+        <v>2.6</v>
+      </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
@@ -18015,6 +22293,18 @@
       <c r="H357" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I357" s="0" t="e">
+        <f aca="false">D357-E357</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J357" s="0" t="e">
+        <f aca="false">C357-F357</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K357" s="0" t="e">
+        <f aca="false">G357-H357</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="n">
@@ -18041,6 +22331,18 @@
       <c r="H358" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I358" s="0" t="e">
+        <f aca="false">D358-E358</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J358" s="0" t="e">
+        <f aca="false">C358-F358</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K358" s="0" t="e">
+        <f aca="false">G358-H358</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="n">
@@ -18067,6 +22369,18 @@
       <c r="H359" s="6" t="n">
         <v>29.4</v>
       </c>
+      <c r="I359" s="0" t="n">
+        <f aca="false">D359-E359</f>
+        <v>-8</v>
+      </c>
+      <c r="J359" s="0" t="n">
+        <f aca="false">C359-F359</f>
+        <v>3.2</v>
+      </c>
+      <c r="K359" s="0" t="n">
+        <f aca="false">G359-H359</f>
+        <v>4.4</v>
+      </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="n">
@@ -18093,6 +22407,18 @@
       <c r="H360" s="8" t="n">
         <v>8.8</v>
       </c>
+      <c r="I360" s="0" t="n">
+        <f aca="false">D360-E360</f>
+        <v>-2.9</v>
+      </c>
+      <c r="J360" s="0" t="n">
+        <f aca="false">C360-F360</f>
+        <v>5.5</v>
+      </c>
+      <c r="K360" s="0" t="n">
+        <f aca="false">G360-H360</f>
+        <v>-0.100000000000001</v>
+      </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="n">
@@ -18119,6 +22445,18 @@
       <c r="H361" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I361" s="0" t="e">
+        <f aca="false">D361-E361</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J361" s="0" t="e">
+        <f aca="false">C361-F361</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K361" s="0" t="e">
+        <f aca="false">G361-H361</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="n">
@@ -18145,6 +22483,18 @@
       <c r="H362" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I362" s="0" t="e">
+        <f aca="false">D362-E362</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J362" s="0" t="e">
+        <f aca="false">C362-F362</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K362" s="0" t="e">
+        <f aca="false">G362-H362</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="n">
@@ -18171,6 +22521,18 @@
       <c r="H363" s="8" t="n">
         <v>25.3</v>
       </c>
+      <c r="I363" s="0" t="n">
+        <f aca="false">D363-E363</f>
+        <v>-7.2</v>
+      </c>
+      <c r="J363" s="0" t="n">
+        <f aca="false">C363-F363</f>
+        <v>2.9</v>
+      </c>
+      <c r="K363" s="0" t="n">
+        <f aca="false">G363-H363</f>
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="n">
@@ -18197,6 +22559,18 @@
       <c r="H364" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I364" s="0" t="e">
+        <f aca="false">D364-E364</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J364" s="0" t="e">
+        <f aca="false">C364-F364</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K364" s="0" t="e">
+        <f aca="false">G364-H364</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="n">
@@ -18223,6 +22597,18 @@
       <c r="H365" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I365" s="0" t="e">
+        <f aca="false">D365-E365</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J365" s="0" t="e">
+        <f aca="false">C365-F365</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K365" s="0" t="e">
+        <f aca="false">G365-H365</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="n">
@@ -18249,6 +22635,18 @@
       <c r="H366" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I366" s="0" t="e">
+        <f aca="false">D366-E366</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J366" s="0" t="e">
+        <f aca="false">C366-F366</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K366" s="0" t="e">
+        <f aca="false">G366-H366</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="n">
@@ -18275,6 +22673,18 @@
       <c r="H367" s="8" t="n">
         <v>25.5</v>
       </c>
+      <c r="I367" s="0" t="n">
+        <f aca="false">D367-E367</f>
+        <v>-6.1</v>
+      </c>
+      <c r="J367" s="0" t="n">
+        <f aca="false">C367-F367</f>
+        <v>2</v>
+      </c>
+      <c r="K367" s="0" t="n">
+        <f aca="false">G367-H367</f>
+        <v>-1.8</v>
+      </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="n">
@@ -18301,6 +22711,18 @@
       <c r="H368" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I368" s="0" t="e">
+        <f aca="false">D368-E368</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J368" s="0" t="e">
+        <f aca="false">C368-F368</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K368" s="0" t="e">
+        <f aca="false">G368-H368</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="n">
@@ -18327,6 +22749,18 @@
       <c r="H369" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I369" s="0" t="e">
+        <f aca="false">D369-E369</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J369" s="0" t="e">
+        <f aca="false">C369-F369</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K369" s="0" t="e">
+        <f aca="false">G369-H369</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="n">
@@ -18353,6 +22787,18 @@
       <c r="H370" s="11" t="n">
         <v>19</v>
       </c>
+      <c r="I370" s="0" t="n">
+        <f aca="false">D370-E370</f>
+        <v>-2.9</v>
+      </c>
+      <c r="J370" s="0" t="n">
+        <f aca="false">C370-F370</f>
+        <v>-2.5</v>
+      </c>
+      <c r="K370" s="0" t="n">
+        <f aca="false">G370-H370</f>
+        <v>1.8</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="n">
@@ -18379,6 +22825,18 @@
       <c r="H371" s="8" t="n">
         <v>19.8</v>
       </c>
+      <c r="I371" s="0" t="n">
+        <f aca="false">D371-E371</f>
+        <v>-3.7</v>
+      </c>
+      <c r="J371" s="0" t="n">
+        <f aca="false">C371-F371</f>
+        <v>11.6</v>
+      </c>
+      <c r="K371" s="0" t="n">
+        <f aca="false">G371-H371</f>
+        <v>8.8</v>
+      </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="n">
@@ -18405,6 +22863,18 @@
       <c r="H372" s="6" t="n">
         <v>15.3</v>
       </c>
+      <c r="I372" s="0" t="n">
+        <f aca="false">D372-E372</f>
+        <v>-14.4</v>
+      </c>
+      <c r="J372" s="0" t="n">
+        <f aca="false">C372-F372</f>
+        <v>20.1</v>
+      </c>
+      <c r="K372" s="0" t="n">
+        <f aca="false">G372-H372</f>
+        <v>-3.9</v>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="n">
@@ -18431,6 +22901,18 @@
       <c r="H373" s="8" t="n">
         <v>31.7</v>
       </c>
+      <c r="I373" s="0" t="n">
+        <f aca="false">D373-E373</f>
+        <v>0.700000000000003</v>
+      </c>
+      <c r="J373" s="0" t="n">
+        <f aca="false">C373-F373</f>
+        <v>-11.5</v>
+      </c>
+      <c r="K373" s="0" t="n">
+        <f aca="false">G373-H373</f>
+        <v>-3.9</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="n">
@@ -18457,6 +22939,18 @@
       <c r="H374" s="6" t="n">
         <v>26.5</v>
       </c>
+      <c r="I374" s="0" t="n">
+        <f aca="false">D374-E374</f>
+        <v>-3.8</v>
+      </c>
+      <c r="J374" s="0" t="n">
+        <f aca="false">C374-F374</f>
+        <v>3.4</v>
+      </c>
+      <c r="K374" s="0" t="n">
+        <f aca="false">G374-H374</f>
+        <v>-2.3</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="n">
@@ -18483,6 +22977,18 @@
       <c r="H375" s="8" t="n">
         <v>24.6</v>
       </c>
+      <c r="I375" s="0" t="n">
+        <f aca="false">D375-E375</f>
+        <v>-3.3</v>
+      </c>
+      <c r="J375" s="0" t="n">
+        <f aca="false">C375-F375</f>
+        <v>47.7</v>
+      </c>
+      <c r="K375" s="0" t="n">
+        <f aca="false">G375-H375</f>
+        <v>12.2</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="n">
@@ -18509,6 +23015,18 @@
       <c r="H376" s="6" t="n">
         <v>32.5</v>
       </c>
+      <c r="I376" s="0" t="n">
+        <f aca="false">D376-E376</f>
+        <v>-4.2</v>
+      </c>
+      <c r="J376" s="0" t="n">
+        <f aca="false">C376-F376</f>
+        <v>12.7</v>
+      </c>
+      <c r="K376" s="0" t="n">
+        <f aca="false">G376-H376</f>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="n">
@@ -18535,6 +23053,18 @@
       <c r="H377" s="8" t="n">
         <v>25.5</v>
       </c>
+      <c r="I377" s="0" t="n">
+        <f aca="false">D377-E377</f>
+        <v>-14.5</v>
+      </c>
+      <c r="J377" s="0" t="n">
+        <f aca="false">C377-F377</f>
+        <v>2.2</v>
+      </c>
+      <c r="K377" s="0" t="n">
+        <f aca="false">G377-H377</f>
+        <v>-4.7</v>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="n">
@@ -18561,6 +23091,18 @@
       <c r="H378" s="6" t="n">
         <v>24.7</v>
       </c>
+      <c r="I378" s="0" t="n">
+        <f aca="false">D378-E378</f>
+        <v>-9.4</v>
+      </c>
+      <c r="J378" s="0" t="n">
+        <f aca="false">C378-F378</f>
+        <v>6.5</v>
+      </c>
+      <c r="K378" s="0" t="n">
+        <f aca="false">G378-H378</f>
+        <v>-2.4</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="n">
@@ -18587,6 +23129,18 @@
       <c r="H379" s="8" t="n">
         <v>23.5</v>
       </c>
+      <c r="I379" s="0" t="n">
+        <f aca="false">D379-E379</f>
+        <v>-1.9</v>
+      </c>
+      <c r="J379" s="0" t="n">
+        <f aca="false">C379-F379</f>
+        <v>-1.2</v>
+      </c>
+      <c r="K379" s="0" t="n">
+        <f aca="false">G379-H379</f>
+        <v>-4.2</v>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="n">
@@ -18613,6 +23167,18 @@
       <c r="H380" s="6" t="n">
         <v>36.3</v>
       </c>
+      <c r="I380" s="0" t="n">
+        <f aca="false">D380-E380</f>
+        <v>-13.1</v>
+      </c>
+      <c r="J380" s="0" t="n">
+        <f aca="false">C380-F380</f>
+        <v>27.1</v>
+      </c>
+      <c r="K380" s="0" t="n">
+        <f aca="false">G380-H380</f>
+        <v>-6.3</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="n">
@@ -18639,6 +23205,18 @@
       <c r="H381" s="8" t="n">
         <v>25.5</v>
       </c>
+      <c r="I381" s="0" t="n">
+        <f aca="false">D381-E381</f>
+        <v>-6.7</v>
+      </c>
+      <c r="J381" s="0" t="n">
+        <f aca="false">C381-F381</f>
+        <v>1.4</v>
+      </c>
+      <c r="K381" s="0" t="n">
+        <f aca="false">G381-H381</f>
+        <v>-4</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="n">
@@ -18665,6 +23243,18 @@
       <c r="H382" s="6" t="n">
         <v>22.3</v>
       </c>
+      <c r="I382" s="0" t="n">
+        <f aca="false">D382-E382</f>
+        <v>-3.09999999999999</v>
+      </c>
+      <c r="J382" s="0" t="n">
+        <f aca="false">C382-F382</f>
+        <v>15.9</v>
+      </c>
+      <c r="K382" s="0" t="n">
+        <f aca="false">G382-H382</f>
+        <v>-5.1</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="n">
@@ -18691,6 +23281,18 @@
       <c r="H383" s="8" t="n">
         <v>29.7</v>
       </c>
+      <c r="I383" s="0" t="n">
+        <f aca="false">D383-E383</f>
+        <v>-10</v>
+      </c>
+      <c r="J383" s="0" t="n">
+        <f aca="false">C383-F383</f>
+        <v>38</v>
+      </c>
+      <c r="K383" s="0" t="n">
+        <f aca="false">G383-H383</f>
+        <v>0.199999999999999</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="n">
@@ -18717,6 +23319,18 @@
       <c r="H384" s="6" t="n">
         <v>21.2</v>
       </c>
+      <c r="I384" s="0" t="n">
+        <f aca="false">D384-E384</f>
+        <v>-21.1</v>
+      </c>
+      <c r="J384" s="0" t="n">
+        <f aca="false">C384-F384</f>
+        <v>32.4</v>
+      </c>
+      <c r="K384" s="0" t="n">
+        <f aca="false">G384-H384</f>
+        <v>7.3</v>
+      </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="n">
@@ -18743,6 +23357,18 @@
       <c r="H385" s="8" t="n">
         <v>18.2</v>
       </c>
+      <c r="I385" s="0" t="n">
+        <f aca="false">D385-E385</f>
+        <v>-5.1</v>
+      </c>
+      <c r="J385" s="0" t="n">
+        <f aca="false">C385-F385</f>
+        <v>-3.6</v>
+      </c>
+      <c r="K385" s="0" t="n">
+        <f aca="false">G385-H385</f>
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="n">
@@ -18769,6 +23395,18 @@
       <c r="H386" s="6" t="n">
         <v>22.9</v>
       </c>
+      <c r="I386" s="0" t="n">
+        <f aca="false">D386-E386</f>
+        <v>-18.6</v>
+      </c>
+      <c r="J386" s="0" t="n">
+        <f aca="false">C386-F386</f>
+        <v>4.1</v>
+      </c>
+      <c r="K386" s="0" t="n">
+        <f aca="false">G386-H386</f>
+        <v>-1.8</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="n">
@@ -18795,6 +23433,18 @@
       <c r="H387" s="8" t="n">
         <v>31.5</v>
       </c>
+      <c r="I387" s="0" t="n">
+        <f aca="false">D387-E387</f>
+        <v>-17.6</v>
+      </c>
+      <c r="J387" s="0" t="n">
+        <f aca="false">C387-F387</f>
+        <v>16.7</v>
+      </c>
+      <c r="K387" s="0" t="n">
+        <f aca="false">G387-H387</f>
+        <v>-10.4</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="n">
@@ -18821,6 +23471,18 @@
       <c r="H388" s="6" t="n">
         <v>25.7</v>
       </c>
+      <c r="I388" s="0" t="n">
+        <f aca="false">D388-E388</f>
+        <v>-3</v>
+      </c>
+      <c r="J388" s="0" t="n">
+        <f aca="false">C388-F388</f>
+        <v>-12.8</v>
+      </c>
+      <c r="K388" s="0" t="n">
+        <f aca="false">G388-H388</f>
+        <v>0.900000000000002</v>
+      </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="n">
@@ -18847,6 +23509,18 @@
       <c r="H389" s="8" t="n">
         <v>23.2</v>
       </c>
+      <c r="I389" s="0" t="n">
+        <f aca="false">D389-E389</f>
+        <v>-11.4</v>
+      </c>
+      <c r="J389" s="0" t="n">
+        <f aca="false">C389-F389</f>
+        <v>1.6</v>
+      </c>
+      <c r="K389" s="0" t="n">
+        <f aca="false">G389-H389</f>
+        <v>2.2</v>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="n">
@@ -18873,6 +23547,18 @@
       <c r="H390" s="6" t="n">
         <v>22.3</v>
       </c>
+      <c r="I390" s="0" t="n">
+        <f aca="false">D390-E390</f>
+        <v>-10.8</v>
+      </c>
+      <c r="J390" s="0" t="n">
+        <f aca="false">C390-F390</f>
+        <v>16.5</v>
+      </c>
+      <c r="K390" s="0" t="n">
+        <f aca="false">G390-H390</f>
+        <v>0.0999999999999979</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="n">
@@ -18899,6 +23585,18 @@
       <c r="H391" s="8" t="n">
         <v>18.9</v>
       </c>
+      <c r="I391" s="0" t="n">
+        <f aca="false">D391-E391</f>
+        <v>-16.2</v>
+      </c>
+      <c r="J391" s="0" t="n">
+        <f aca="false">C391-F391</f>
+        <v>7.5</v>
+      </c>
+      <c r="K391" s="0" t="n">
+        <f aca="false">G391-H391</f>
+        <v>3.6</v>
+      </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="n">
@@ -18925,6 +23623,18 @@
       <c r="H392" s="6" t="n">
         <v>20.9</v>
       </c>
+      <c r="I392" s="0" t="n">
+        <f aca="false">D392-E392</f>
+        <v>-15.5</v>
+      </c>
+      <c r="J392" s="0" t="n">
+        <f aca="false">C392-F392</f>
+        <v>-0.399999999999999</v>
+      </c>
+      <c r="K392" s="0" t="n">
+        <f aca="false">G392-H392</f>
+        <v>5.4</v>
+      </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="n">
@@ -18951,6 +23661,18 @@
       <c r="H393" s="8" t="n">
         <v>36.4</v>
       </c>
+      <c r="I393" s="0" t="n">
+        <f aca="false">D393-E393</f>
+        <v>2.2</v>
+      </c>
+      <c r="J393" s="0" t="n">
+        <f aca="false">C393-F393</f>
+        <v>6.6</v>
+      </c>
+      <c r="K393" s="0" t="n">
+        <f aca="false">G393-H393</f>
+        <v>-0.100000000000001</v>
+      </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="n">
@@ -18977,6 +23699,18 @@
       <c r="H394" s="6" t="n">
         <v>19.6</v>
       </c>
+      <c r="I394" s="0" t="n">
+        <f aca="false">D394-E394</f>
+        <v>-4.5</v>
+      </c>
+      <c r="J394" s="0" t="n">
+        <f aca="false">C394-F394</f>
+        <v>10.3</v>
+      </c>
+      <c r="K394" s="0" t="n">
+        <f aca="false">G394-H394</f>
+        <v>5.3</v>
+      </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="n">
@@ -19003,6 +23737,18 @@
       <c r="H395" s="8" t="n">
         <v>23.9</v>
       </c>
+      <c r="I395" s="0" t="n">
+        <f aca="false">D395-E395</f>
+        <v>-6.4</v>
+      </c>
+      <c r="J395" s="0" t="n">
+        <f aca="false">C395-F395</f>
+        <v>1</v>
+      </c>
+      <c r="K395" s="0" t="n">
+        <f aca="false">G395-H395</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="n">
@@ -19029,6 +23775,18 @@
       <c r="H396" s="6" t="n">
         <v>30.6</v>
       </c>
+      <c r="I396" s="0" t="n">
+        <f aca="false">D396-E396</f>
+        <v>-7.5</v>
+      </c>
+      <c r="J396" s="0" t="n">
+        <f aca="false">C396-F396</f>
+        <v>-2.6</v>
+      </c>
+      <c r="K396" s="0" t="n">
+        <f aca="false">G396-H396</f>
+        <v>-3.7</v>
+      </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="n">
@@ -19055,6 +23813,18 @@
       <c r="H397" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I397" s="0" t="e">
+        <f aca="false">D397-E397</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J397" s="0" t="e">
+        <f aca="false">C397-F397</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K397" s="0" t="e">
+        <f aca="false">G397-H397</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="n">
@@ -19081,6 +23851,18 @@
       <c r="H398" s="6" t="n">
         <v>34.1</v>
       </c>
+      <c r="I398" s="0" t="n">
+        <f aca="false">D398-E398</f>
+        <v>-4.4</v>
+      </c>
+      <c r="J398" s="0" t="n">
+        <f aca="false">C398-F398</f>
+        <v>-13.5</v>
+      </c>
+      <c r="K398" s="0" t="n">
+        <f aca="false">G398-H398</f>
+        <v>-10.9</v>
+      </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="n">
@@ -19107,6 +23889,18 @@
       <c r="H399" s="9" t="n">
         <v>21</v>
       </c>
+      <c r="I399" s="0" t="n">
+        <f aca="false">D399-E399</f>
+        <v>-8.3</v>
+      </c>
+      <c r="J399" s="0" t="n">
+        <f aca="false">C399-F399</f>
+        <v>15.2</v>
+      </c>
+      <c r="K399" s="0" t="n">
+        <f aca="false">G399-H399</f>
+        <v>-5.3</v>
+      </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="n">
@@ -19133,6 +23927,18 @@
       <c r="H400" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I400" s="0" t="e">
+        <f aca="false">D400-E400</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J400" s="0" t="e">
+        <f aca="false">C400-F400</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K400" s="0" t="e">
+        <f aca="false">G400-H400</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="n">
@@ -19159,6 +23965,18 @@
       <c r="H401" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I401" s="0" t="e">
+        <f aca="false">D401-E401</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J401" s="0" t="e">
+        <f aca="false">C401-F401</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K401" s="0" t="e">
+        <f aca="false">G401-H401</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="n">
@@ -19185,6 +24003,18 @@
       <c r="H402" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I402" s="0" t="e">
+        <f aca="false">D402-E402</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J402" s="0" t="e">
+        <f aca="false">C402-F402</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K402" s="0" t="e">
+        <f aca="false">G402-H402</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="n">
@@ -19211,6 +24041,18 @@
       <c r="H403" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I403" s="0" t="e">
+        <f aca="false">D403-E403</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J403" s="0" t="e">
+        <f aca="false">C403-F403</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K403" s="0" t="e">
+        <f aca="false">G403-H403</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="n">
@@ -19237,6 +24079,18 @@
       <c r="H404" s="6" t="n">
         <v>27.4</v>
       </c>
+      <c r="I404" s="0" t="n">
+        <f aca="false">D404-E404</f>
+        <v>-5.1</v>
+      </c>
+      <c r="J404" s="0" t="n">
+        <f aca="false">C404-F404</f>
+        <v>3.4</v>
+      </c>
+      <c r="K404" s="0" t="n">
+        <f aca="false">G404-H404</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="n">
@@ -19263,6 +24117,18 @@
       <c r="H405" s="8" t="n">
         <v>10.2</v>
       </c>
+      <c r="I405" s="0" t="n">
+        <f aca="false">D405-E405</f>
+        <v>-6.8</v>
+      </c>
+      <c r="J405" s="0" t="n">
+        <f aca="false">C405-F405</f>
+        <v>8.6</v>
+      </c>
+      <c r="K405" s="0" t="n">
+        <f aca="false">G405-H405</f>
+        <v>-2.9</v>
+      </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="n">
@@ -19289,6 +24155,18 @@
       <c r="H406" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I406" s="0" t="e">
+        <f aca="false">D406-E406</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J406" s="0" t="e">
+        <f aca="false">C406-F406</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K406" s="0" t="e">
+        <f aca="false">G406-H406</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="n">
@@ -19315,6 +24193,18 @@
       <c r="H407" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I407" s="0" t="e">
+        <f aca="false">D407-E407</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J407" s="0" t="e">
+        <f aca="false">C407-F407</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K407" s="0" t="e">
+        <f aca="false">G407-H407</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="n">
@@ -19341,6 +24231,18 @@
       <c r="H408" s="8" t="n">
         <v>25.8</v>
       </c>
+      <c r="I408" s="0" t="n">
+        <f aca="false">D408-E408</f>
+        <v>-6</v>
+      </c>
+      <c r="J408" s="0" t="n">
+        <f aca="false">C408-F408</f>
+        <v>2.1</v>
+      </c>
+      <c r="K408" s="0" t="n">
+        <f aca="false">G408-H408</f>
+        <v>-1.8</v>
+      </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="n">
@@ -19367,6 +24269,18 @@
       <c r="H409" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I409" s="0" t="e">
+        <f aca="false">D409-E409</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J409" s="0" t="e">
+        <f aca="false">C409-F409</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K409" s="0" t="e">
+        <f aca="false">G409-H409</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="n">
@@ -19393,6 +24307,18 @@
       <c r="H410" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I410" s="0" t="e">
+        <f aca="false">D410-E410</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J410" s="0" t="e">
+        <f aca="false">C410-F410</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K410" s="0" t="e">
+        <f aca="false">G410-H410</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="n">
@@ -19419,6 +24345,18 @@
       <c r="H411" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I411" s="0" t="e">
+        <f aca="false">D411-E411</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J411" s="0" t="e">
+        <f aca="false">C411-F411</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K411" s="0" t="e">
+        <f aca="false">G411-H411</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="n">
@@ -19445,6 +24383,18 @@
       <c r="H412" s="8" t="n">
         <v>26.5</v>
       </c>
+      <c r="I412" s="0" t="n">
+        <f aca="false">D412-E412</f>
+        <v>-5.5</v>
+      </c>
+      <c r="J412" s="0" t="n">
+        <f aca="false">C412-F412</f>
+        <v>1.5</v>
+      </c>
+      <c r="K412" s="0" t="n">
+        <f aca="false">G412-H412</f>
+        <v>-2.3</v>
+      </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="n">
@@ -19471,6 +24421,18 @@
       <c r="H413" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I413" s="0" t="e">
+        <f aca="false">D413-E413</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J413" s="0" t="e">
+        <f aca="false">C413-F413</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K413" s="0" t="e">
+        <f aca="false">G413-H413</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="n">
@@ -19497,6 +24459,18 @@
       <c r="H414" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I414" s="0" t="e">
+        <f aca="false">D414-E414</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J414" s="0" t="e">
+        <f aca="false">C414-F414</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K414" s="0" t="e">
+        <f aca="false">G414-H414</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="n">
@@ -19523,6 +24497,18 @@
       <c r="H415" s="6" t="n">
         <v>17.4</v>
       </c>
+      <c r="I415" s="0" t="n">
+        <f aca="false">D415-E415</f>
+        <v>0.300000000000001</v>
+      </c>
+      <c r="J415" s="0" t="n">
+        <f aca="false">C415-F415</f>
+        <v>-5.4</v>
+      </c>
+      <c r="K415" s="0" t="n">
+        <f aca="false">G415-H415</f>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="n">
@@ -19549,6 +24535,18 @@
       <c r="H416" s="8" t="n">
         <v>17.7</v>
       </c>
+      <c r="I416" s="0" t="n">
+        <f aca="false">D416-E416</f>
+        <v>-6.09999999999999</v>
+      </c>
+      <c r="J416" s="0" t="n">
+        <f aca="false">C416-F416</f>
+        <v>16.5</v>
+      </c>
+      <c r="K416" s="0" t="n">
+        <f aca="false">G416-H416</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="n">
@@ -19575,6 +24573,18 @@
       <c r="H417" s="6" t="n">
         <v>14.6</v>
       </c>
+      <c r="I417" s="0" t="n">
+        <f aca="false">D417-E417</f>
+        <v>-8</v>
+      </c>
+      <c r="J417" s="0" t="n">
+        <f aca="false">C417-F417</f>
+        <v>5.8</v>
+      </c>
+      <c r="K417" s="0" t="n">
+        <f aca="false">G417-H417</f>
+        <v>-3.2</v>
+      </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="n">
@@ -19601,6 +24611,18 @@
       <c r="H418" s="9" t="n">
         <v>30</v>
       </c>
+      <c r="I418" s="0" t="n">
+        <f aca="false">D418-E418</f>
+        <v>0.699999999999999</v>
+      </c>
+      <c r="J418" s="0" t="n">
+        <f aca="false">C418-F418</f>
+        <v>-11.1</v>
+      </c>
+      <c r="K418" s="0" t="n">
+        <f aca="false">G418-H418</f>
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="n">
@@ -19627,6 +24649,18 @@
       <c r="H419" s="6" t="n">
         <v>30.3</v>
       </c>
+      <c r="I419" s="0" t="n">
+        <f aca="false">D419-E419</f>
+        <v>-1.6</v>
+      </c>
+      <c r="J419" s="0" t="n">
+        <f aca="false">C419-F419</f>
+        <v>1.3</v>
+      </c>
+      <c r="K419" s="0" t="n">
+        <f aca="false">G419-H419</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="n">
@@ -19653,6 +24687,18 @@
       <c r="H420" s="8" t="n">
         <v>28.4</v>
       </c>
+      <c r="I420" s="0" t="n">
+        <f aca="false">D420-E420</f>
+        <v>-7.19999999999999</v>
+      </c>
+      <c r="J420" s="0" t="n">
+        <f aca="false">C420-F420</f>
+        <v>39.4</v>
+      </c>
+      <c r="K420" s="0" t="n">
+        <f aca="false">G420-H420</f>
+        <v>5.6</v>
+      </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="n">
@@ -19679,6 +24725,18 @@
       <c r="H421" s="6" t="n">
         <v>20.5</v>
       </c>
+      <c r="I421" s="0" t="n">
+        <f aca="false">D421-E421</f>
+        <v>-6.3</v>
+      </c>
+      <c r="J421" s="0" t="n">
+        <f aca="false">C421-F421</f>
+        <v>21.4</v>
+      </c>
+      <c r="K421" s="0" t="n">
+        <f aca="false">G421-H421</f>
+        <v>13.1</v>
+      </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="n">
@@ -19705,6 +24763,18 @@
       <c r="H422" s="8" t="n">
         <v>25.6</v>
       </c>
+      <c r="I422" s="0" t="n">
+        <f aca="false">D422-E422</f>
+        <v>-12.2</v>
+      </c>
+      <c r="J422" s="0" t="n">
+        <f aca="false">C422-F422</f>
+        <v>3.1</v>
+      </c>
+      <c r="K422" s="0" t="n">
+        <f aca="false">G422-H422</f>
+        <v>-3.3</v>
+      </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="n">
@@ -19731,6 +24801,18 @@
       <c r="H423" s="11" t="n">
         <v>25</v>
       </c>
+      <c r="I423" s="0" t="n">
+        <f aca="false">D423-E423</f>
+        <v>-8.6</v>
+      </c>
+      <c r="J423" s="0" t="n">
+        <f aca="false">C423-F423</f>
+        <v>7</v>
+      </c>
+      <c r="K423" s="0" t="n">
+        <f aca="false">G423-H423</f>
+        <v>-5.6</v>
+      </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="n">
@@ -19757,6 +24839,18 @@
       <c r="H424" s="8" t="n">
         <v>24.7</v>
       </c>
+      <c r="I424" s="0" t="n">
+        <f aca="false">D424-E424</f>
+        <v>-1.5</v>
+      </c>
+      <c r="J424" s="0" t="n">
+        <f aca="false">C424-F424</f>
+        <v>-4.3</v>
+      </c>
+      <c r="K424" s="0" t="n">
+        <f aca="false">G424-H424</f>
+        <v>-2.3</v>
+      </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="n">
@@ -19783,6 +24877,18 @@
       <c r="H425" s="6" t="n">
         <v>37.3</v>
       </c>
+      <c r="I425" s="0" t="n">
+        <f aca="false">D425-E425</f>
+        <v>-10.9</v>
+      </c>
+      <c r="J425" s="0" t="n">
+        <f aca="false">C425-F425</f>
+        <v>26.2</v>
+      </c>
+      <c r="K425" s="0" t="n">
+        <f aca="false">G425-H425</f>
+        <v>-3.8</v>
+      </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="n">
@@ -19809,6 +24915,18 @@
       <c r="H426" s="8" t="n">
         <v>27.5</v>
       </c>
+      <c r="I426" s="0" t="n">
+        <f aca="false">D426-E426</f>
+        <v>-9.2</v>
+      </c>
+      <c r="J426" s="0" t="n">
+        <f aca="false">C426-F426</f>
+        <v>3.7</v>
+      </c>
+      <c r="K426" s="0" t="n">
+        <f aca="false">G426-H426</f>
+        <v>-7</v>
+      </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="n">
@@ -19835,6 +24953,18 @@
       <c r="H427" s="6" t="n">
         <v>27.6</v>
       </c>
+      <c r="I427" s="0" t="n">
+        <f aca="false">D427-E427</f>
+        <v>-11.6</v>
+      </c>
+      <c r="J427" s="0" t="n">
+        <f aca="false">C427-F427</f>
+        <v>24.6</v>
+      </c>
+      <c r="K427" s="0" t="n">
+        <f aca="false">G427-H427</f>
+        <v>-11.2</v>
+      </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="n">
@@ -19861,6 +24991,18 @@
       <c r="H428" s="8" t="n">
         <v>29.2</v>
       </c>
+      <c r="I428" s="0" t="n">
+        <f aca="false">D428-E428</f>
+        <v>-9.40000000000001</v>
+      </c>
+      <c r="J428" s="0" t="n">
+        <f aca="false">C428-F428</f>
+        <v>37.7</v>
+      </c>
+      <c r="K428" s="0" t="n">
+        <f aca="false">G428-H428</f>
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="n">
@@ -19887,6 +25029,18 @@
       <c r="H429" s="6" t="n">
         <v>22.3</v>
       </c>
+      <c r="I429" s="0" t="n">
+        <f aca="false">D429-E429</f>
+        <v>-13.4</v>
+      </c>
+      <c r="J429" s="0" t="n">
+        <f aca="false">C429-F429</f>
+        <v>27.5</v>
+      </c>
+      <c r="K429" s="0" t="n">
+        <f aca="false">G429-H429</f>
+        <v>6.6</v>
+      </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="n">
@@ -19913,6 +25067,18 @@
       <c r="H430" s="8" t="n">
         <v>24.6</v>
       </c>
+      <c r="I430" s="0" t="n">
+        <f aca="false">D430-E430</f>
+        <v>1.9</v>
+      </c>
+      <c r="J430" s="0" t="n">
+        <f aca="false">C430-F430</f>
+        <v>-6.7</v>
+      </c>
+      <c r="K430" s="0" t="n">
+        <f aca="false">G430-H430</f>
+        <v>-7.4</v>
+      </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="n">
@@ -19939,6 +25105,18 @@
       <c r="H431" s="6" t="n">
         <v>21.8</v>
       </c>
+      <c r="I431" s="0" t="n">
+        <f aca="false">D431-E431</f>
+        <v>-8.7</v>
+      </c>
+      <c r="J431" s="0" t="n">
+        <f aca="false">C431-F431</f>
+        <v>8.6</v>
+      </c>
+      <c r="K431" s="0" t="n">
+        <f aca="false">G431-H431</f>
+        <v>-0.600000000000001</v>
+      </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="n">
@@ -19965,6 +25143,18 @@
       <c r="H432" s="8" t="n">
         <v>33.9</v>
       </c>
+      <c r="I432" s="0" t="n">
+        <f aca="false">D432-E432</f>
+        <v>-18.6</v>
+      </c>
+      <c r="J432" s="0" t="n">
+        <f aca="false">C432-F432</f>
+        <v>10.3</v>
+      </c>
+      <c r="K432" s="0" t="n">
+        <f aca="false">G432-H432</f>
+        <v>-5.4</v>
+      </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="n">
@@ -19991,6 +25181,18 @@
       <c r="H433" s="6" t="n">
         <v>23.4</v>
       </c>
+      <c r="I433" s="0" t="n">
+        <f aca="false">D433-E433</f>
+        <v>-2.9</v>
+      </c>
+      <c r="J433" s="0" t="n">
+        <f aca="false">C433-F433</f>
+        <v>-11.1</v>
+      </c>
+      <c r="K433" s="0" t="n">
+        <f aca="false">G433-H433</f>
+        <v>1.7</v>
+      </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="n">
@@ -20017,6 +25219,18 @@
       <c r="H434" s="8" t="n">
         <v>25.9</v>
       </c>
+      <c r="I434" s="0" t="n">
+        <f aca="false">D434-E434</f>
+        <v>-13</v>
+      </c>
+      <c r="J434" s="0" t="n">
+        <f aca="false">C434-F434</f>
+        <v>1.2</v>
+      </c>
+      <c r="K434" s="0" t="n">
+        <f aca="false">G434-H434</f>
+        <v>-1.2</v>
+      </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="n">
@@ -20043,6 +25257,18 @@
       <c r="H435" s="6" t="n">
         <v>22.5</v>
       </c>
+      <c r="I435" s="0" t="n">
+        <f aca="false">D435-E435</f>
+        <v>-12</v>
+      </c>
+      <c r="J435" s="0" t="n">
+        <f aca="false">C435-F435</f>
+        <v>12</v>
+      </c>
+      <c r="K435" s="0" t="n">
+        <f aca="false">G435-H435</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="n">
@@ -20069,6 +25295,18 @@
       <c r="H436" s="8" t="n">
         <v>16.9</v>
       </c>
+      <c r="I436" s="0" t="n">
+        <f aca="false">D436-E436</f>
+        <v>-12.5</v>
+      </c>
+      <c r="J436" s="0" t="n">
+        <f aca="false">C436-F436</f>
+        <v>12.3</v>
+      </c>
+      <c r="K436" s="0" t="n">
+        <f aca="false">G436-H436</f>
+        <v>8.4</v>
+      </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="n">
@@ -20095,6 +25333,18 @@
       <c r="H437" s="6" t="n">
         <v>15.4</v>
       </c>
+      <c r="I437" s="0" t="n">
+        <f aca="false">D437-E437</f>
+        <v>-12.3</v>
+      </c>
+      <c r="J437" s="0" t="n">
+        <f aca="false">C437-F437</f>
+        <v>8.4</v>
+      </c>
+      <c r="K437" s="0" t="n">
+        <f aca="false">G437-H437</f>
+        <v>2.7</v>
+      </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="n">
@@ -20121,6 +25371,18 @@
       <c r="H438" s="8" t="n">
         <v>33.9</v>
       </c>
+      <c r="I438" s="0" t="n">
+        <f aca="false">D438-E438</f>
+        <v>0.400000000000006</v>
+      </c>
+      <c r="J438" s="0" t="n">
+        <f aca="false">C438-F438</f>
+        <v>16.4</v>
+      </c>
+      <c r="K438" s="0" t="n">
+        <f aca="false">G438-H438</f>
+        <v>-3.7</v>
+      </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="n">
@@ -20147,6 +25409,18 @@
       <c r="H439" s="6" t="n">
         <v>19.6</v>
       </c>
+      <c r="I439" s="0" t="n">
+        <f aca="false">D439-E439</f>
+        <v>-4.2</v>
+      </c>
+      <c r="J439" s="0" t="n">
+        <f aca="false">C439-F439</f>
+        <v>2.8</v>
+      </c>
+      <c r="K439" s="0" t="n">
+        <f aca="false">G439-H439</f>
+        <v>5.5</v>
+      </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="n">
@@ -20173,6 +25447,18 @@
       <c r="H440" s="9" t="n">
         <v>25</v>
       </c>
+      <c r="I440" s="0" t="n">
+        <f aca="false">D440-E440</f>
+        <v>-9</v>
+      </c>
+      <c r="J440" s="0" t="n">
+        <f aca="false">C440-F440</f>
+        <v>-4.1</v>
+      </c>
+      <c r="K440" s="0" t="n">
+        <f aca="false">G440-H440</f>
+        <v>7.3</v>
+      </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="n">
@@ -20199,6 +25485,18 @@
       <c r="H441" s="6" t="n">
         <v>26.2</v>
       </c>
+      <c r="I441" s="0" t="n">
+        <f aca="false">D441-E441</f>
+        <v>1.3</v>
+      </c>
+      <c r="J441" s="0" t="n">
+        <f aca="false">C441-F441</f>
+        <v>-8</v>
+      </c>
+      <c r="K441" s="0" t="n">
+        <f aca="false">G441-H441</f>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="n">
@@ -20225,6 +25523,18 @@
       <c r="H442" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I442" s="0" t="e">
+        <f aca="false">D442-E442</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J442" s="0" t="e">
+        <f aca="false">C442-F442</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K442" s="0" t="e">
+        <f aca="false">G442-H442</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="n">
@@ -20251,6 +25561,18 @@
       <c r="H443" s="6" t="n">
         <v>31.8</v>
       </c>
+      <c r="I443" s="0" t="n">
+        <f aca="false">D443-E443</f>
+        <v>-1.4</v>
+      </c>
+      <c r="J443" s="0" t="n">
+        <f aca="false">C443-F443</f>
+        <v>-13.8</v>
+      </c>
+      <c r="K443" s="0" t="n">
+        <f aca="false">G443-H443</f>
+        <v>-6.9</v>
+      </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="n">
@@ -20277,6 +25599,18 @@
       <c r="H444" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I444" s="0" t="e">
+        <f aca="false">D444-E444</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J444" s="0" t="e">
+        <f aca="false">C444-F444</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K444" s="0" t="e">
+        <f aca="false">G444-H444</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="n">
@@ -20303,6 +25637,18 @@
       <c r="H445" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I445" s="0" t="e">
+        <f aca="false">D445-E445</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J445" s="0" t="e">
+        <f aca="false">C445-F445</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K445" s="0" t="e">
+        <f aca="false">G445-H445</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="n">
@@ -20329,6 +25675,18 @@
       <c r="H446" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I446" s="0" t="e">
+        <f aca="false">D446-E446</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J446" s="0" t="e">
+        <f aca="false">C446-F446</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K446" s="0" t="e">
+        <f aca="false">G446-H446</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="n">
@@ -20355,6 +25713,18 @@
       <c r="H447" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I447" s="0" t="e">
+        <f aca="false">D447-E447</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J447" s="0" t="e">
+        <f aca="false">C447-F447</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K447" s="0" t="e">
+        <f aca="false">G447-H447</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="n">
@@ -20381,6 +25751,18 @@
       <c r="H448" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="I448" s="0" t="e">
+        <f aca="false">D448-E448</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J448" s="0" t="e">
+        <f aca="false">C448-F448</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K448" s="0" t="e">
+        <f aca="false">G448-H448</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="n">
@@ -20407,6 +25789,18 @@
       <c r="H449" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I449" s="0" t="e">
+        <f aca="false">D449-E449</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J449" s="0" t="e">
+        <f aca="false">C449-F449</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K449" s="0" t="e">
+        <f aca="false">G449-H449</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="n">
@@ -20433,6 +25827,18 @@
       <c r="H450" s="8" t="n">
         <v>14.9</v>
       </c>
+      <c r="I450" s="0" t="n">
+        <f aca="false">D450-E450</f>
+        <v>-11.1</v>
+      </c>
+      <c r="J450" s="0" t="n">
+        <f aca="false">C450-F450</f>
+        <v>11.8</v>
+      </c>
+      <c r="K450" s="0" t="n">
+        <f aca="false">G450-H450</f>
+        <v>-5.9</v>
+      </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="n">
@@ -20458,6 +25864,18 @@
       </c>
       <c r="H451" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="I451" s="0" t="e">
+        <f aca="false">D451-E451</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J451" s="0" t="e">
+        <f aca="false">C451-F451</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K451" s="0" t="e">
+        <f aca="false">G451-H451</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
